--- a/TWLO.xlsx
+++ b/TWLO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609591D1-53F4-634C-8B52-02B556C1B00C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC0D54F-876D-CA46-9BD4-EDAC42FE6696}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18960" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
   <si>
     <t>Q117</t>
   </si>
@@ -235,12 +235,6 @@
     <t>Q420</t>
   </si>
   <si>
-    <t>BADWILL</t>
-  </si>
-  <si>
-    <t>Intangibles per share</t>
-  </si>
-  <si>
     <t>Risk-free rate + market premium (opportunity cost)</t>
   </si>
   <si>
@@ -248,18 +242,6 @@
   </si>
   <si>
     <t>Net present value on future net income (terminal value)</t>
-  </si>
-  <si>
-    <t>RORC</t>
-  </si>
-  <si>
-    <t>PRR</t>
-  </si>
-  <si>
-    <t>Return on research capital</t>
-  </si>
-  <si>
-    <t>Price to R&amp;D ratio</t>
   </si>
   <si>
     <t>Products</t>
@@ -278,9 +260,6 @@
   </si>
   <si>
     <t>Active customers y/y</t>
-  </si>
-  <si>
-    <t>365-370</t>
   </si>
   <si>
     <t>Aquired</t>
@@ -602,12 +581,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -625,6 +598,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -660,7 +639,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -708,14 +687,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -732,7 +711,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12700000" y="152400"/>
+          <a:off x="14325600" y="152400"/>
           <a:ext cx="0" cy="8750300"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1023,13 +1002,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GQ66"/>
+  <dimension ref="A1:GQ61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1041,11 +1020,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:116" x14ac:dyDescent="0.15">
@@ -1053,10 +1032,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="4">
-        <v>194</v>
-      </c>
-      <c r="D2" s="69">
-        <v>43972</v>
+        <v>341.24</v>
+      </c>
+      <c r="D2" s="67">
+        <v>44201</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>25</v>
@@ -1075,11 +1054,11 @@
         <v>17</v>
       </c>
       <c r="C3" s="8">
-        <f>Reports!N21</f>
-        <v>139.231594</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>63</v>
+        <f>Reports!P21</f>
+        <v>147.50107499999999</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>96</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>26</v>
@@ -1093,17 +1072,17 @@
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
-        <v>75</v>
+      <c r="A4" s="69" t="s">
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="10">
         <f>C2*C3</f>
-        <v>27010.929236</v>
-      </c>
-      <c r="D4" s="70"/>
+        <v>50333.266832999994</v>
+      </c>
+      <c r="D4" s="68"/>
       <c r="E4" s="6" t="s">
         <v>27</v>
       </c>
@@ -1112,11 +1091,11 @@
         <v>0.06</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I4" s="20"/>
       <c r="L4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:116" x14ac:dyDescent="0.15">
@@ -1124,21 +1103,21 @@
         <v>22</v>
       </c>
       <c r="C5" s="8">
-        <f>Reports!N33</f>
-        <v>1380</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>63</v>
+        <f>Reports!P33</f>
+        <v>2866</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>96</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="11">
         <f>NPV(F4,F26:GQ26)</f>
-        <v>40595.443025423083</v>
+        <v>41055.515406309372</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I5" s="20"/>
     </row>
@@ -1151,45 +1130,45 @@
       </c>
       <c r="C6" s="10">
         <f>C4-C5</f>
-        <v>25630.929236</v>
-      </c>
-      <c r="D6" s="70"/>
+        <v>47467.266832999994</v>
+      </c>
+      <c r="D6" s="68"/>
       <c r="E6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="13">
         <f>F5+C5</f>
-        <v>41975.443025423083</v>
+        <v>43921.515406309372</v>
       </c>
       <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A7" s="71" t="s">
-        <v>75</v>
+      <c r="A7" s="69" t="s">
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="47">
         <f>C6/C3</f>
-        <v>184.08845650362949</v>
-      </c>
-      <c r="D7" s="70"/>
+        <v>321.80963313657207</v>
+      </c>
+      <c r="D7" s="68"/>
       <c r="E7" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="46">
         <f>F6/C3</f>
-        <v>301.47929661297337</v>
+        <v>297.77081561140744</v>
       </c>
       <c r="G7" s="20">
         <f>F7/C2-1</f>
-        <v>0.5540169928503782</v>
+        <v>-0.12738595823641008</v>
       </c>
     </row>
     <row r="8" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A8" s="71" t="s">
-        <v>76</v>
+      <c r="A8" s="69" t="s">
+        <v>70</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="15"/>
@@ -1367,8 +1346,8 @@
       <c r="DL9" s="42"/>
     </row>
     <row r="10" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A10" s="67" t="s">
-        <v>100</v>
+      <c r="A10" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="41">
@@ -1614,7 +1593,7 @@
     </row>
     <row r="12" spans="1:116" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C12" s="24">
         <f>AVERAGE(Reports!B5:E5)</f>
@@ -1630,23 +1609,23 @@
       </c>
       <c r="F12" s="41">
         <f>AVERAGE(Reports!N5:Q5)</f>
-        <v>204730.9375</v>
+        <v>204100</v>
       </c>
       <c r="G12" s="41">
         <f>+F12*1.2</f>
-        <v>245677.125</v>
+        <v>244920</v>
       </c>
       <c r="H12" s="41">
         <f t="shared" ref="H12:J12" si="1">+G12*1.2</f>
-        <v>294812.55</v>
+        <v>293904</v>
       </c>
       <c r="I12" s="41">
         <f t="shared" si="1"/>
-        <v>353775.06</v>
+        <v>352684.79999999999</v>
       </c>
       <c r="J12" s="41">
         <f t="shared" si="1"/>
-        <v>424530.07199999999</v>
+        <v>423221.75999999995</v>
       </c>
       <c r="K12" s="41"/>
       <c r="L12" s="41"/>
@@ -1773,23 +1752,23 @@
       </c>
       <c r="F13" s="41">
         <f>SUM(Reports!N6:Q6)</f>
-        <v>8276.9825710526329</v>
+        <v>8339.6819812753038</v>
       </c>
       <c r="G13" s="41">
         <f>F13*1.2</f>
-        <v>9932.3790852631591</v>
+        <v>10007.618377530363</v>
       </c>
       <c r="H13" s="41">
         <f t="shared" ref="H13:J13" si="2">G13*1.2</f>
-        <v>11918.85490231579</v>
+        <v>12009.142053036436</v>
       </c>
       <c r="I13" s="41">
         <f t="shared" si="2"/>
-        <v>14302.625882778948</v>
+        <v>14410.970463643722</v>
       </c>
       <c r="J13" s="41">
         <f t="shared" si="2"/>
-        <v>17163.151059334738</v>
+        <v>17293.164556372467</v>
       </c>
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
@@ -1910,76 +1889,76 @@
       </c>
       <c r="B15" s="62"/>
       <c r="C15" s="26">
-        <f>C13*(C12/1000000)</f>
+        <f t="shared" ref="C15:J15" si="3">C13*(C12/1000000)</f>
         <v>399.02</v>
       </c>
       <c r="D15" s="26">
-        <f>D13*(D12/1000000)</f>
+        <f t="shared" si="3"/>
         <v>650.06700000000001</v>
       </c>
       <c r="E15" s="26">
-        <f>E13*(E12/1000000)</f>
+        <f t="shared" si="3"/>
         <v>1134.4679999999998</v>
       </c>
       <c r="F15" s="50">
-        <f>F13*(F12/1000000)</f>
-        <v>1694.5544014427658</v>
+        <f t="shared" si="3"/>
+        <v>1702.1290923782894</v>
       </c>
       <c r="G15" s="50">
-        <f>G13*(G12/1000000)</f>
-        <v>2440.1583380775828</v>
+        <f t="shared" si="3"/>
+        <v>2451.0658930247364</v>
       </c>
       <c r="H15" s="50">
-        <f>H13*(H12/1000000)</f>
-        <v>3513.828006831719</v>
+        <f t="shared" si="3"/>
+        <v>3529.5348859556207</v>
       </c>
       <c r="I15" s="50">
-        <f>I13*(I12/1000000)</f>
-        <v>5059.9123298376753</v>
+        <f t="shared" si="3"/>
+        <v>5082.5302357760929</v>
       </c>
       <c r="J15" s="50">
-        <f>J13*(J12/1000000)</f>
-        <v>7286.2737549662525</v>
+        <f t="shared" si="3"/>
+        <v>7318.8435395175738</v>
       </c>
       <c r="K15" s="50">
-        <f t="shared" ref="K15:T15" si="3">J15*1.1</f>
-        <v>8014.9011304628784</v>
+        <f t="shared" ref="K15:T15" si="4">J15*1.1</f>
+        <v>8050.7278934693322</v>
       </c>
       <c r="L15" s="50">
-        <f t="shared" si="3"/>
-        <v>8816.3912435091661</v>
+        <f t="shared" si="4"/>
+        <v>8855.800682816267</v>
       </c>
       <c r="M15" s="50">
-        <f t="shared" si="3"/>
-        <v>9698.0303678600831</v>
+        <f t="shared" si="4"/>
+        <v>9741.380751097895</v>
       </c>
       <c r="N15" s="50">
-        <f t="shared" si="3"/>
-        <v>10667.833404646091</v>
+        <f t="shared" si="4"/>
+        <v>10715.518826207684</v>
       </c>
       <c r="O15" s="50">
-        <f t="shared" si="3"/>
-        <v>11734.616745110701</v>
+        <f t="shared" si="4"/>
+        <v>11787.070708828454</v>
       </c>
       <c r="P15" s="50">
-        <f t="shared" si="3"/>
-        <v>12908.078419621772</v>
+        <f t="shared" si="4"/>
+        <v>12965.777779711301</v>
       </c>
       <c r="Q15" s="50">
-        <f t="shared" si="3"/>
-        <v>14198.88626158395</v>
+        <f t="shared" si="4"/>
+        <v>14262.355557682433</v>
       </c>
       <c r="R15" s="50">
-        <f t="shared" si="3"/>
-        <v>15618.774887742346</v>
+        <f t="shared" si="4"/>
+        <v>15688.591113450677</v>
       </c>
       <c r="S15" s="50">
-        <f t="shared" si="3"/>
-        <v>17180.65237651658</v>
+        <f t="shared" si="4"/>
+        <v>17257.450224795746</v>
       </c>
       <c r="T15" s="50">
-        <f t="shared" si="3"/>
-        <v>18898.717614168239</v>
+        <f t="shared" si="4"/>
+        <v>18983.195247275322</v>
       </c>
       <c r="U15" s="42"/>
       <c r="V15" s="42"/>
@@ -2097,63 +2076,63 @@
       </c>
       <c r="F16" s="24">
         <f>F15-F17</f>
-        <v>785.0153201612095</v>
+        <v>788.52435381914916</v>
       </c>
       <c r="G16" s="24">
-        <f t="shared" ref="G16" si="4">G15-G17</f>
-        <v>1130.4220610321418</v>
+        <f t="shared" ref="G16" si="5">G15-G17</f>
+        <v>1135.4750694995746</v>
       </c>
       <c r="H16" s="24">
-        <f t="shared" ref="H16:O16" si="5">H15-H17</f>
-        <v>1627.8077678862842</v>
+        <f t="shared" ref="H16:O16" si="6">H15-H17</f>
+        <v>1635.0841000793876</v>
       </c>
       <c r="I16" s="24">
-        <f t="shared" si="5"/>
-        <v>2344.0431857562489</v>
+        <f t="shared" si="6"/>
+        <v>2354.5211041143175</v>
       </c>
       <c r="J16" s="24">
         <f>J15-J17</f>
-        <v>3375.4221874889986</v>
+        <v>3390.5103899246174</v>
       </c>
       <c r="K16" s="24">
-        <f t="shared" si="5"/>
-        <v>3712.9644062378984</v>
+        <f t="shared" si="6"/>
+        <v>3729.5614289170799</v>
       </c>
       <c r="L16" s="24">
-        <f t="shared" si="5"/>
-        <v>4084.2608468616891</v>
+        <f t="shared" si="6"/>
+        <v>4102.5175718087885</v>
       </c>
       <c r="M16" s="24">
-        <f t="shared" si="5"/>
-        <v>4492.686931547858</v>
+        <f t="shared" si="6"/>
+        <v>4512.7693289896679</v>
       </c>
       <c r="N16" s="24">
-        <f t="shared" si="5"/>
-        <v>4941.955624702643</v>
+        <f t="shared" si="6"/>
+        <v>4964.046261888634</v>
       </c>
       <c r="O16" s="24">
-        <f t="shared" si="5"/>
-        <v>5436.1511871729081</v>
+        <f t="shared" si="6"/>
+        <v>5460.4508880774983</v>
       </c>
       <c r="P16" s="24">
-        <f t="shared" ref="P16:T16" si="6">P15-P17</f>
-        <v>5979.766305890199</v>
+        <f t="shared" ref="P16:T16" si="7">P15-P17</f>
+        <v>6006.4959768852486</v>
       </c>
       <c r="Q16" s="24">
-        <f t="shared" si="6"/>
-        <v>6577.7429364792197</v>
+        <f t="shared" si="7"/>
+        <v>6607.1455745737749</v>
       </c>
       <c r="R16" s="24">
-        <f t="shared" si="6"/>
-        <v>7235.5172301271414</v>
+        <f t="shared" si="7"/>
+        <v>7267.8601320311518</v>
       </c>
       <c r="S16" s="24">
-        <f t="shared" si="6"/>
-        <v>7959.0689531398566</v>
+        <f t="shared" si="7"/>
+        <v>7994.6461452342683</v>
       </c>
       <c r="T16" s="24">
-        <f t="shared" si="6"/>
-        <v>8754.9758484538415</v>
+        <f t="shared" si="7"/>
+        <v>8794.1107597576956</v>
       </c>
       <c r="U16" s="42"/>
       <c r="V16" s="42"/>
@@ -2271,63 +2250,63 @@
       </c>
       <c r="F17" s="24">
         <f>F15*E30</f>
-        <v>909.53908128155626</v>
+        <v>913.60473855914029</v>
       </c>
       <c r="G17" s="24">
-        <f t="shared" ref="G17:T17" si="7">G15*F30</f>
-        <v>1309.7362770454411</v>
+        <f t="shared" ref="G17:T17" si="8">G15*F30</f>
+        <v>1315.5908235251618</v>
       </c>
       <c r="H17" s="24">
-        <f t="shared" si="7"/>
-        <v>1886.0202389454348</v>
+        <f t="shared" si="8"/>
+        <v>1894.4507858762331</v>
       </c>
       <c r="I17" s="24">
-        <f t="shared" si="7"/>
-        <v>2715.8691440814264</v>
+        <f t="shared" si="8"/>
+        <v>2728.0091316617754</v>
       </c>
       <c r="J17" s="24">
         <f>J15*I30</f>
-        <v>3910.8515674772539</v>
+        <v>3928.3331495929565</v>
       </c>
       <c r="K17" s="24">
-        <f t="shared" si="7"/>
-        <v>4301.93672422498</v>
+        <f t="shared" si="8"/>
+        <v>4321.1664645522524</v>
       </c>
       <c r="L17" s="24">
-        <f t="shared" si="7"/>
-        <v>4732.130396647477</v>
+        <f t="shared" si="8"/>
+        <v>4753.2831110074785</v>
       </c>
       <c r="M17" s="24">
-        <f t="shared" si="7"/>
-        <v>5205.3434363122251</v>
+        <f t="shared" si="8"/>
+        <v>5228.6114221082271</v>
       </c>
       <c r="N17" s="24">
-        <f t="shared" si="7"/>
-        <v>5725.8777799434483</v>
+        <f t="shared" si="8"/>
+        <v>5751.4725643190504</v>
       </c>
       <c r="O17" s="24">
-        <f t="shared" si="7"/>
-        <v>6298.4655579377932</v>
+        <f t="shared" si="8"/>
+        <v>6326.619820750956</v>
       </c>
       <c r="P17" s="24">
-        <f t="shared" si="7"/>
-        <v>6928.3121137315729</v>
+        <f t="shared" si="8"/>
+        <v>6959.2818028260526</v>
       </c>
       <c r="Q17" s="24">
-        <f t="shared" si="7"/>
-        <v>7621.1433251047301</v>
+        <f t="shared" si="8"/>
+        <v>7655.209983108658</v>
       </c>
       <c r="R17" s="24">
-        <f t="shared" si="7"/>
-        <v>8383.2576576152042</v>
+        <f t="shared" si="8"/>
+        <v>8420.7309814195251</v>
       </c>
       <c r="S17" s="24">
-        <f t="shared" si="7"/>
-        <v>9221.5834233767237</v>
+        <f t="shared" si="8"/>
+        <v>9262.8040795614779</v>
       </c>
       <c r="T17" s="24">
-        <f t="shared" si="7"/>
-        <v>10143.741765714398</v>
+        <f t="shared" si="8"/>
+        <v>10189.084487517626</v>
       </c>
       <c r="U17" s="42"/>
       <c r="V17" s="42"/>
@@ -2448,19 +2427,19 @@
         <v>508.3</v>
       </c>
       <c r="G18" s="24">
-        <f t="shared" ref="G18:J18" si="8">F18*1.3</f>
+        <f t="shared" ref="G18:J18" si="9">F18*1.3</f>
         <v>660.79000000000008</v>
       </c>
       <c r="H18" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>859.02700000000016</v>
       </c>
       <c r="I18" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1116.7351000000003</v>
       </c>
       <c r="J18" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1451.7556300000006</v>
       </c>
       <c r="K18" s="24">
@@ -2468,39 +2447,39 @@
         <v>1596.9311930000008</v>
       </c>
       <c r="L18" s="24">
-        <f t="shared" ref="L18:T18" si="9">K18*1.1</f>
+        <f t="shared" ref="L18:T18" si="10">K18*1.1</f>
         <v>1756.6243123000011</v>
       </c>
       <c r="M18" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1932.2867435300013</v>
       </c>
       <c r="N18" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2125.5154178830016</v>
       </c>
       <c r="O18" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2338.0669596713019</v>
       </c>
       <c r="P18" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2571.8736556384324</v>
       </c>
       <c r="Q18" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2829.0610212022757</v>
       </c>
       <c r="R18" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3111.9671233225035</v>
       </c>
       <c r="S18" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3423.1638356547542</v>
       </c>
       <c r="T18" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3765.4802192202301</v>
       </c>
       <c r="U18" s="42"/>
@@ -2622,19 +2601,19 @@
         <v>442.8</v>
       </c>
       <c r="G19" s="24">
-        <f t="shared" ref="G19:J19" si="10">F19*1.2</f>
+        <f t="shared" ref="G19:J19" si="11">F19*1.2</f>
         <v>531.36</v>
       </c>
       <c r="H19" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>637.63199999999995</v>
       </c>
       <c r="I19" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>765.15839999999992</v>
       </c>
       <c r="J19" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>918.19007999999985</v>
       </c>
       <c r="K19" s="24">
@@ -2642,39 +2621,39 @@
         <v>964.09958399999994</v>
       </c>
       <c r="L19" s="24">
-        <f t="shared" ref="L19:T19" si="11">K19*1.05</f>
+        <f t="shared" ref="L19:T19" si="12">K19*1.05</f>
         <v>1012.3045632</v>
       </c>
       <c r="M19" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1062.9197913600001</v>
       </c>
       <c r="N19" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1116.0657809280001</v>
       </c>
       <c r="O19" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1171.8690699744002</v>
       </c>
       <c r="P19" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1230.4625234731202</v>
       </c>
       <c r="Q19" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1291.9856496467762</v>
       </c>
       <c r="R19" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1356.584932129115</v>
       </c>
       <c r="S19" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1424.4141787355709</v>
       </c>
       <c r="T19" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1495.6348876723496</v>
       </c>
       <c r="U19" s="42"/>
@@ -2796,59 +2775,59 @@
         <v>251.85</v>
       </c>
       <c r="G20" s="24">
-        <f t="shared" ref="G20:J20" si="12">F20*1.15</f>
+        <f t="shared" ref="G20:J20" si="13">F20*1.15</f>
         <v>289.6275</v>
       </c>
       <c r="H20" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>333.07162499999998</v>
       </c>
       <c r="I20" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>383.03236874999993</v>
       </c>
       <c r="J20" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>440.48722406249988</v>
       </c>
       <c r="K20" s="24">
-        <f t="shared" ref="K20:T20" si="13">J20*0.98</f>
+        <f t="shared" ref="K20:T20" si="14">J20*0.98</f>
         <v>431.67747958124988</v>
       </c>
       <c r="L20" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>423.04392998962487</v>
       </c>
       <c r="M20" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>414.58305138983235</v>
       </c>
       <c r="N20" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>406.29139036203571</v>
       </c>
       <c r="O20" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>398.16556255479497</v>
       </c>
       <c r="P20" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>390.20225130369909</v>
       </c>
       <c r="Q20" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>382.39820627762509</v>
       </c>
       <c r="R20" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>374.75024215207259</v>
       </c>
       <c r="S20" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>367.25523730903114</v>
       </c>
       <c r="T20" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>359.91013256285049</v>
       </c>
       <c r="U20" s="42"/>
@@ -2966,63 +2945,63 @@
         <v>979</v>
       </c>
       <c r="F21" s="24">
-        <f t="shared" ref="F21:G21" si="14">SUM(F18:F20)</f>
+        <f t="shared" ref="F21:G21" si="15">SUM(F18:F20)</f>
         <v>1202.95</v>
       </c>
       <c r="G21" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1481.7775000000001</v>
       </c>
       <c r="H21" s="24">
-        <f t="shared" ref="H21:O21" si="15">SUM(H18:H20)</f>
+        <f t="shared" ref="H21:O21" si="16">SUM(H18:H20)</f>
         <v>1829.7306250000001</v>
       </c>
       <c r="I21" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2264.9258687500001</v>
       </c>
       <c r="J21" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2810.4329340625004</v>
       </c>
       <c r="K21" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2992.7082565812507</v>
       </c>
       <c r="L21" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3191.9728054896259</v>
       </c>
       <c r="M21" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3409.7895862798337</v>
       </c>
       <c r="N21" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3647.8725891730373</v>
       </c>
       <c r="O21" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3908.1015922004972</v>
       </c>
       <c r="P21" s="24">
-        <f t="shared" ref="P21:T21" si="16">SUM(P18:P20)</f>
+        <f t="shared" ref="P21:T21" si="17">SUM(P18:P20)</f>
         <v>4192.5384304152522</v>
       </c>
       <c r="Q21" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4503.4448771266771</v>
       </c>
       <c r="R21" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4843.3022976036918</v>
       </c>
       <c r="S21" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5214.833251699356</v>
       </c>
       <c r="T21" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5621.02523945543</v>
       </c>
       <c r="U21" s="42"/>
@@ -3140,64 +3119,64 @@
         <v>-370.08300000000008</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" ref="F22:G22" si="17">F17-F21</f>
-        <v>-293.41091871844378</v>
+        <f t="shared" ref="F22:G22" si="18">F17-F21</f>
+        <v>-289.34526144085976</v>
       </c>
       <c r="G22" s="24">
-        <f t="shared" si="17"/>
-        <v>-172.04122295455909</v>
+        <f t="shared" si="18"/>
+        <v>-166.18667647483835</v>
       </c>
       <c r="H22" s="24">
-        <f t="shared" ref="H22:O22" si="18">H17-H21</f>
-        <v>56.289613945434667</v>
+        <f t="shared" ref="H22:O22" si="19">H17-H21</f>
+        <v>64.720160876232967</v>
       </c>
       <c r="I22" s="24">
-        <f t="shared" si="18"/>
-        <v>450.94327533142632</v>
+        <f t="shared" si="19"/>
+        <v>463.08326291177536</v>
       </c>
       <c r="J22" s="24">
-        <f t="shared" si="18"/>
-        <v>1100.4186334147535</v>
+        <f t="shared" si="19"/>
+        <v>1117.9002155304561</v>
       </c>
       <c r="K22" s="24">
-        <f t="shared" si="18"/>
-        <v>1309.2284676437293</v>
+        <f t="shared" si="19"/>
+        <v>1328.4582079710017</v>
       </c>
       <c r="L22" s="24">
-        <f t="shared" si="18"/>
-        <v>1540.1575911578511</v>
+        <f t="shared" si="19"/>
+        <v>1561.3103055178526</v>
       </c>
       <c r="M22" s="24">
-        <f t="shared" si="18"/>
-        <v>1795.5538500323914</v>
+        <f t="shared" si="19"/>
+        <v>1818.8218358283934</v>
       </c>
       <c r="N22" s="24">
-        <f t="shared" si="18"/>
-        <v>2078.005190770411</v>
+        <f t="shared" si="19"/>
+        <v>2103.5999751460131</v>
       </c>
       <c r="O22" s="24">
-        <f t="shared" si="18"/>
-        <v>2390.363965737296</v>
+        <f t="shared" si="19"/>
+        <v>2418.5182285504588</v>
       </c>
       <c r="P22" s="24">
-        <f t="shared" ref="P22:T22" si="19">P17-P21</f>
-        <v>2735.7736833163208</v>
+        <f t="shared" ref="P22:T22" si="20">P17-P21</f>
+        <v>2766.7433724108005</v>
       </c>
       <c r="Q22" s="24">
-        <f t="shared" si="19"/>
-        <v>3117.6984479780531</v>
+        <f t="shared" si="20"/>
+        <v>3151.7651059819809</v>
       </c>
       <c r="R22" s="24">
-        <f t="shared" si="19"/>
-        <v>3539.9553600115123</v>
+        <f t="shared" si="20"/>
+        <v>3577.4286838158332</v>
       </c>
       <c r="S22" s="24">
-        <f t="shared" si="19"/>
-        <v>4006.7501716773677</v>
+        <f t="shared" si="20"/>
+        <v>4047.970827862122</v>
       </c>
       <c r="T22" s="24">
-        <f t="shared" si="19"/>
-        <v>4522.7165262589679</v>
+        <f t="shared" si="20"/>
+        <v>4568.0592480621963</v>
       </c>
       <c r="U22" s="42"/>
       <c r="V22" s="42"/>
@@ -3314,64 +3293,64 @@
         <v>7</v>
       </c>
       <c r="F23" s="24">
-        <f t="shared" ref="F23:T23" si="20">E40*$F$3</f>
+        <f t="shared" ref="F23:T23" si="21">E40*$F$3</f>
         <v>27.900000000000002</v>
       </c>
       <c r="G23" s="24">
-        <f t="shared" si="20"/>
-        <v>23.386314381786455</v>
+        <f t="shared" si="21"/>
+        <v>23.455430555505384</v>
       </c>
       <c r="H23" s="24">
-        <f t="shared" si="20"/>
-        <v>20.85918093604932</v>
+        <f t="shared" si="21"/>
+        <v>21.028999374876722</v>
       </c>
       <c r="I23" s="24">
-        <f t="shared" si="20"/>
-        <v>22.170710449034544</v>
+        <f t="shared" si="21"/>
+        <v>22.486735099145587</v>
       </c>
       <c r="J23" s="24">
-        <f t="shared" si="20"/>
-        <v>30.213648207302381</v>
+        <f t="shared" si="21"/>
+        <v>30.741425065331242</v>
       </c>
       <c r="K23" s="24">
-        <f t="shared" si="20"/>
-        <v>49.434396994877332</v>
+        <f t="shared" si="21"/>
+        <v>50.268332955459627</v>
       </c>
       <c r="L23" s="24">
-        <f t="shared" si="20"/>
-        <v>72.531665693733643</v>
+        <f t="shared" si="21"/>
+        <v>73.706684151209473</v>
       </c>
       <c r="M23" s="24">
-        <f t="shared" si="20"/>
-        <v>99.947383060210598</v>
+        <f t="shared" si="21"/>
+        <v>101.50197297558353</v>
       </c>
       <c r="N23" s="24">
-        <f t="shared" si="20"/>
-        <v>132.17090402278484</v>
+        <f t="shared" si="21"/>
+        <v>134.14747772525115</v>
       </c>
       <c r="O23" s="24">
-        <f t="shared" si="20"/>
-        <v>169.74389763426916</v>
+        <f t="shared" si="21"/>
+        <v>172.18918442406263</v>
       </c>
       <c r="P23" s="24">
-        <f t="shared" si="20"/>
-        <v>213.26573131158577</v>
+        <f t="shared" si="21"/>
+        <v>216.23121044462948</v>
       </c>
       <c r="Q23" s="24">
-        <f t="shared" si="20"/>
-        <v>263.39940136026019</v>
+        <f t="shared" si="21"/>
+        <v>266.94177835317174</v>
       </c>
       <c r="R23" s="24">
-        <f t="shared" si="20"/>
-        <v>320.8780647990115</v>
+        <f t="shared" si="21"/>
+        <v>325.05979538686938</v>
       </c>
       <c r="S23" s="24">
-        <f t="shared" si="20"/>
-        <v>386.5122330207904</v>
+        <f t="shared" si="21"/>
+        <v>391.40209953331532</v>
       </c>
       <c r="T23" s="24">
-        <f t="shared" si="20"/>
-        <v>461.19769390065909</v>
+        <f t="shared" si="21"/>
+        <v>466.87143929903783</v>
       </c>
       <c r="U23" s="42"/>
       <c r="V23" s="42"/>
@@ -3488,64 +3467,64 @@
         <v>-363.08300000000008</v>
       </c>
       <c r="F24" s="24">
-        <f t="shared" ref="F24:G24" si="21">F22+F23</f>
-        <v>-265.5109187184438</v>
+        <f t="shared" ref="F24:G24" si="22">F22+F23</f>
+        <v>-261.44526144085978</v>
       </c>
       <c r="G24" s="24">
-        <f t="shared" si="21"/>
-        <v>-148.65490857277263</v>
+        <f t="shared" si="22"/>
+        <v>-142.73124591933296</v>
       </c>
       <c r="H24" s="24">
-        <f t="shared" ref="H24" si="22">H22+H23</f>
-        <v>77.14879488148398</v>
+        <f t="shared" ref="H24" si="23">H22+H23</f>
+        <v>85.749160251109686</v>
       </c>
       <c r="I24" s="24">
-        <f t="shared" ref="I24" si="23">I22+I23</f>
-        <v>473.11398578046089</v>
+        <f t="shared" ref="I24" si="24">I22+I23</f>
+        <v>485.56999801092093</v>
       </c>
       <c r="J24" s="24">
-        <f t="shared" ref="J24" si="24">J22+J23</f>
-        <v>1130.6322816220559</v>
+        <f t="shared" ref="J24" si="25">J22+J23</f>
+        <v>1148.6416405957873</v>
       </c>
       <c r="K24" s="24">
-        <f t="shared" ref="K24" si="25">K22+K23</f>
-        <v>1358.6628646386066</v>
+        <f t="shared" ref="K24" si="26">K22+K23</f>
+        <v>1378.7265409264612</v>
       </c>
       <c r="L24" s="24">
-        <f t="shared" ref="L24" si="26">L22+L23</f>
-        <v>1612.6892568515848</v>
+        <f t="shared" ref="L24" si="27">L22+L23</f>
+        <v>1635.016989669062</v>
       </c>
       <c r="M24" s="24">
-        <f t="shared" ref="M24" si="27">M22+M23</f>
-        <v>1895.501233092602</v>
+        <f t="shared" ref="M24" si="28">M22+M23</f>
+        <v>1920.323808803977</v>
       </c>
       <c r="N24" s="24">
-        <f t="shared" ref="N24" si="28">N22+N23</f>
-        <v>2210.1760947931957</v>
+        <f t="shared" ref="N24" si="29">N22+N23</f>
+        <v>2237.7474528712642</v>
       </c>
       <c r="O24" s="24">
-        <f t="shared" ref="O24:P24" si="29">O22+O23</f>
-        <v>2560.1078633715651</v>
+        <f t="shared" ref="O24:P24" si="30">O22+O23</f>
+        <v>2590.7074129745215</v>
       </c>
       <c r="P24" s="24">
-        <f t="shared" si="29"/>
-        <v>2949.0394146279064</v>
+        <f t="shared" si="30"/>
+        <v>2982.9745828554301</v>
       </c>
       <c r="Q24" s="24">
-        <f t="shared" ref="Q24:T24" si="30">Q22+Q23</f>
-        <v>3381.0978493383132</v>
+        <f t="shared" ref="Q24:T24" si="31">Q22+Q23</f>
+        <v>3418.7068843351526</v>
       </c>
       <c r="R24" s="24">
-        <f t="shared" si="30"/>
-        <v>3860.8334248105239</v>
+        <f t="shared" si="31"/>
+        <v>3902.4884792027024</v>
       </c>
       <c r="S24" s="24">
-        <f t="shared" si="30"/>
-        <v>4393.2624046981582</v>
+        <f t="shared" si="31"/>
+        <v>4439.3729273954377</v>
       </c>
       <c r="T24" s="24">
-        <f t="shared" si="30"/>
-        <v>4983.9142201596269</v>
+        <f t="shared" si="31"/>
+        <v>5034.930687361234</v>
       </c>
       <c r="U24" s="42"/>
       <c r="V24" s="42"/>
@@ -3663,63 +3642,63 @@
       </c>
       <c r="F25" s="24">
         <f>F24*0.15</f>
-        <v>-39.826637807766566</v>
+        <v>-39.216789216128966</v>
       </c>
       <c r="G25" s="24">
-        <f t="shared" ref="G25:T25" si="31">G24*0.15</f>
-        <v>-22.298236285915895</v>
+        <f t="shared" ref="G25:T25" si="32">G24*0.15</f>
+        <v>-21.409686887899944</v>
       </c>
       <c r="H25" s="24">
-        <f t="shared" si="31"/>
-        <v>11.572319232222597</v>
+        <f t="shared" si="32"/>
+        <v>12.862374037666452</v>
       </c>
       <c r="I25" s="24">
-        <f t="shared" si="31"/>
-        <v>70.967097867069128</v>
+        <f t="shared" si="32"/>
+        <v>72.835499701638142</v>
       </c>
       <c r="J25" s="24">
-        <f t="shared" si="31"/>
-        <v>169.59484224330836</v>
+        <f t="shared" si="32"/>
+        <v>172.29624608936808</v>
       </c>
       <c r="K25" s="24">
-        <f t="shared" si="31"/>
-        <v>203.79942969579099</v>
+        <f t="shared" si="32"/>
+        <v>206.80898113896919</v>
       </c>
       <c r="L25" s="24">
-        <f t="shared" si="31"/>
-        <v>241.90338852773772</v>
+        <f t="shared" si="32"/>
+        <v>245.25254845035928</v>
       </c>
       <c r="M25" s="24">
-        <f t="shared" si="31"/>
-        <v>284.32518496389031</v>
+        <f t="shared" si="32"/>
+        <v>288.04857132059652</v>
       </c>
       <c r="N25" s="24">
-        <f t="shared" si="31"/>
-        <v>331.52641421897937</v>
+        <f t="shared" si="32"/>
+        <v>335.66211793068959</v>
       </c>
       <c r="O25" s="24">
-        <f t="shared" si="31"/>
-        <v>384.01617950573478</v>
+        <f t="shared" si="32"/>
+        <v>388.6061119461782</v>
       </c>
       <c r="P25" s="24">
-        <f t="shared" si="31"/>
-        <v>442.35591219418592</v>
+        <f t="shared" si="32"/>
+        <v>447.44618742831449</v>
       </c>
       <c r="Q25" s="24">
-        <f t="shared" si="31"/>
-        <v>507.16467740074694</v>
+        <f t="shared" si="32"/>
+        <v>512.80603265027287</v>
       </c>
       <c r="R25" s="24">
-        <f t="shared" si="31"/>
-        <v>579.12501372157851</v>
+        <f t="shared" si="32"/>
+        <v>585.37327188040535</v>
       </c>
       <c r="S25" s="24">
-        <f t="shared" si="31"/>
-        <v>658.98936070472371</v>
+        <f t="shared" si="32"/>
+        <v>665.90593910931568</v>
       </c>
       <c r="T25" s="24">
-        <f t="shared" si="31"/>
-        <v>747.58713302394403</v>
+        <f t="shared" si="32"/>
+        <v>755.23960310418511</v>
       </c>
       <c r="U25" s="42"/>
       <c r="V25" s="42"/>
@@ -3832,784 +3811,784 @@
         <v>-121.774</v>
       </c>
       <c r="E26" s="26">
-        <f t="shared" ref="E26:G26" si="32">E24-E25</f>
+        <f t="shared" ref="E26:G26" si="33">E24-E25</f>
         <v>-307.08300000000008</v>
       </c>
       <c r="F26" s="26">
         <f>F24-F25</f>
-        <v>-225.68428091067724</v>
+        <v>-222.22847222473081</v>
       </c>
       <c r="G26" s="26">
-        <f t="shared" si="32"/>
-        <v>-126.35667228685674</v>
+        <f t="shared" si="33"/>
+        <v>-121.32155903143303</v>
       </c>
       <c r="H26" s="26">
-        <f t="shared" ref="H26:O26" si="33">H24-H25</f>
-        <v>65.576475649261383</v>
+        <f t="shared" ref="H26:O26" si="34">H24-H25</f>
+        <v>72.88678621344323</v>
       </c>
       <c r="I26" s="26">
-        <f t="shared" si="33"/>
-        <v>402.14688791339177</v>
+        <f t="shared" si="34"/>
+        <v>412.7344983092828</v>
       </c>
       <c r="J26" s="26">
-        <f t="shared" si="33"/>
-        <v>961.03743937874754</v>
+        <f t="shared" si="34"/>
+        <v>976.34539450641921</v>
       </c>
       <c r="K26" s="26">
-        <f t="shared" si="33"/>
-        <v>1154.8634349428157</v>
+        <f t="shared" si="34"/>
+        <v>1171.9175597874921</v>
       </c>
       <c r="L26" s="26">
-        <f t="shared" si="33"/>
-        <v>1370.7858683238471</v>
+        <f t="shared" si="34"/>
+        <v>1389.7644412187028</v>
       </c>
       <c r="M26" s="26">
-        <f t="shared" si="33"/>
-        <v>1611.1760481287117</v>
+        <f t="shared" si="34"/>
+        <v>1632.2752374833806</v>
       </c>
       <c r="N26" s="26">
-        <f t="shared" si="33"/>
-        <v>1878.6496805742163</v>
+        <f t="shared" si="34"/>
+        <v>1902.0853349405745</v>
       </c>
       <c r="O26" s="26">
-        <f t="shared" si="33"/>
-        <v>2176.0916838658304</v>
+        <f t="shared" si="34"/>
+        <v>2202.1013010283432</v>
       </c>
       <c r="P26" s="26">
-        <f t="shared" ref="P26:T26" si="34">P24-P25</f>
-        <v>2506.6835024337206</v>
+        <f t="shared" ref="P26:T26" si="35">P24-P25</f>
+        <v>2535.5283954271154</v>
       </c>
       <c r="Q26" s="26">
-        <f t="shared" si="34"/>
-        <v>2873.9331719375664</v>
+        <f t="shared" si="35"/>
+        <v>2905.9008516848799</v>
       </c>
       <c r="R26" s="26">
-        <f t="shared" si="34"/>
-        <v>3281.7084110889455</v>
+        <f t="shared" si="35"/>
+        <v>3317.115207322297</v>
       </c>
       <c r="S26" s="26">
-        <f t="shared" si="34"/>
-        <v>3734.2730439934344</v>
+        <f t="shared" si="35"/>
+        <v>3773.4669882861222</v>
       </c>
       <c r="T26" s="26">
-        <f t="shared" si="34"/>
-        <v>4236.3270871356826</v>
+        <f t="shared" si="35"/>
+        <v>4279.6910842570487</v>
       </c>
       <c r="U26" s="26">
-        <f t="shared" ref="U26:AZ26" si="35">T26*($F$2+1)</f>
-        <v>4215.1454517000038</v>
+        <f t="shared" ref="U26:AZ26" si="36">T26*($F$2+1)</f>
+        <v>4258.292628835763</v>
       </c>
       <c r="V26" s="26">
-        <f t="shared" si="35"/>
-        <v>4194.0697244415041</v>
+        <f t="shared" si="36"/>
+        <v>4237.001165691584</v>
       </c>
       <c r="W26" s="26">
-        <f t="shared" si="35"/>
-        <v>4173.0993758192963</v>
+        <f t="shared" si="36"/>
+        <v>4215.8161598631259</v>
       </c>
       <c r="X26" s="26">
-        <f t="shared" si="35"/>
-        <v>4152.2338789402002</v>
+        <f t="shared" si="36"/>
+        <v>4194.7370790638106</v>
       </c>
       <c r="Y26" s="26">
-        <f t="shared" si="35"/>
-        <v>4131.4727095454991</v>
+        <f t="shared" si="36"/>
+        <v>4173.7633936684915</v>
       </c>
       <c r="Z26" s="26">
-        <f t="shared" si="35"/>
-        <v>4110.8153459977721</v>
+        <f t="shared" si="36"/>
+        <v>4152.8945767001487</v>
       </c>
       <c r="AA26" s="26">
-        <f t="shared" si="35"/>
-        <v>4090.2612692677831</v>
+        <f t="shared" si="36"/>
+        <v>4132.1301038166475</v>
       </c>
       <c r="AB26" s="26">
-        <f t="shared" si="35"/>
-        <v>4069.8099629214439</v>
+        <f t="shared" si="36"/>
+        <v>4111.4694532975645</v>
       </c>
       <c r="AC26" s="26">
-        <f t="shared" si="35"/>
-        <v>4049.4609131068369</v>
+        <f t="shared" si="36"/>
+        <v>4090.9121060310767</v>
       </c>
       <c r="AD26" s="26">
-        <f t="shared" si="35"/>
-        <v>4029.2136085413026</v>
+        <f t="shared" si="36"/>
+        <v>4070.4575455009212</v>
       </c>
       <c r="AE26" s="26">
-        <f t="shared" si="35"/>
-        <v>4009.0675404985959</v>
+        <f t="shared" si="36"/>
+        <v>4050.1052577734167</v>
       </c>
       <c r="AF26" s="26">
-        <f t="shared" si="35"/>
-        <v>3989.0222027961031</v>
+        <f t="shared" si="36"/>
+        <v>4029.8547314845496</v>
       </c>
       <c r="AG26" s="26">
-        <f t="shared" si="35"/>
-        <v>3969.0770917821224</v>
+        <f t="shared" si="36"/>
+        <v>4009.7054578271268</v>
       </c>
       <c r="AH26" s="26">
-        <f t="shared" si="35"/>
-        <v>3949.2317063232117</v>
+        <f t="shared" si="36"/>
+        <v>3989.6569305379912</v>
       </c>
       <c r="AI26" s="26">
-        <f t="shared" si="35"/>
-        <v>3929.4855477915958</v>
+        <f t="shared" si="36"/>
+        <v>3969.7086458853014</v>
       </c>
       <c r="AJ26" s="26">
-        <f t="shared" si="35"/>
-        <v>3909.8381200526378</v>
+        <f t="shared" si="36"/>
+        <v>3949.8601026558749</v>
       </c>
       <c r="AK26" s="26">
-        <f t="shared" si="35"/>
-        <v>3890.2889294523748</v>
+        <f t="shared" si="36"/>
+        <v>3930.1108021425957</v>
       </c>
       <c r="AL26" s="26">
-        <f t="shared" si="35"/>
-        <v>3870.837484805113</v>
+        <f t="shared" si="36"/>
+        <v>3910.4602481318825</v>
       </c>
       <c r="AM26" s="26">
-        <f t="shared" si="35"/>
-        <v>3851.4832973810876</v>
+        <f t="shared" si="36"/>
+        <v>3890.9079468912232</v>
       </c>
       <c r="AN26" s="26">
-        <f t="shared" si="35"/>
-        <v>3832.225880894182</v>
+        <f t="shared" si="36"/>
+        <v>3871.4534071567673</v>
       </c>
       <c r="AO26" s="26">
-        <f t="shared" si="35"/>
-        <v>3813.0647514897109</v>
+        <f t="shared" si="36"/>
+        <v>3852.0961401209834</v>
       </c>
       <c r="AP26" s="26">
-        <f t="shared" si="35"/>
-        <v>3793.9994277322626</v>
+        <f t="shared" si="36"/>
+        <v>3832.8356594203783</v>
       </c>
       <c r="AQ26" s="26">
-        <f t="shared" si="35"/>
-        <v>3775.0294305936013</v>
+        <f t="shared" si="36"/>
+        <v>3813.6714811232764</v>
       </c>
       <c r="AR26" s="26">
-        <f t="shared" si="35"/>
-        <v>3756.1542834406332</v>
+        <f t="shared" si="36"/>
+        <v>3794.6031237176599</v>
       </c>
       <c r="AS26" s="26">
-        <f t="shared" si="35"/>
-        <v>3737.3735120234301</v>
+        <f t="shared" si="36"/>
+        <v>3775.6301080990715</v>
       </c>
       <c r="AT26" s="26">
-        <f t="shared" si="35"/>
-        <v>3718.6866444633129</v>
+        <f t="shared" si="36"/>
+        <v>3756.7519575585761</v>
       </c>
       <c r="AU26" s="26">
-        <f t="shared" si="35"/>
-        <v>3700.0932112409964</v>
+        <f t="shared" si="36"/>
+        <v>3737.9681977707833</v>
       </c>
       <c r="AV26" s="26">
-        <f t="shared" si="35"/>
-        <v>3681.5927451847915</v>
+        <f t="shared" si="36"/>
+        <v>3719.2783567819292</v>
       </c>
       <c r="AW26" s="26">
-        <f t="shared" si="35"/>
-        <v>3663.1847814588677</v>
+        <f t="shared" si="36"/>
+        <v>3700.6819649980198</v>
       </c>
       <c r="AX26" s="26">
-        <f t="shared" si="35"/>
-        <v>3644.8688575515735</v>
+        <f t="shared" si="36"/>
+        <v>3682.1785551730295</v>
       </c>
       <c r="AY26" s="26">
-        <f t="shared" si="35"/>
-        <v>3626.6445132638155</v>
+        <f t="shared" si="36"/>
+        <v>3663.7676623971643</v>
       </c>
       <c r="AZ26" s="26">
-        <f t="shared" si="35"/>
-        <v>3608.5112906974964</v>
+        <f t="shared" si="36"/>
+        <v>3645.4488240851783</v>
       </c>
       <c r="BA26" s="26">
-        <f t="shared" ref="BA26:CF26" si="36">AZ26*($F$2+1)</f>
-        <v>3590.4687342440088</v>
+        <f t="shared" ref="BA26:CF26" si="37">AZ26*($F$2+1)</f>
+        <v>3627.2215799647524</v>
       </c>
       <c r="BB26" s="26">
-        <f t="shared" si="36"/>
-        <v>3572.5163905727886</v>
+        <f t="shared" si="37"/>
+        <v>3609.0854720649286</v>
       </c>
       <c r="BC26" s="26">
-        <f t="shared" si="36"/>
-        <v>3554.6538086199248</v>
+        <f t="shared" si="37"/>
+        <v>3591.040044704604</v>
       </c>
       <c r="BD26" s="26">
-        <f t="shared" si="36"/>
-        <v>3536.880539576825</v>
+        <f t="shared" si="37"/>
+        <v>3573.0848444810808</v>
       </c>
       <c r="BE26" s="26">
-        <f t="shared" si="36"/>
-        <v>3519.1961368789407</v>
+        <f t="shared" si="37"/>
+        <v>3555.2194202586752</v>
       </c>
       <c r="BF26" s="26">
-        <f t="shared" si="36"/>
-        <v>3501.6001561945459</v>
+        <f t="shared" si="37"/>
+        <v>3537.4433231573817</v>
       </c>
       <c r="BG26" s="26">
-        <f t="shared" si="36"/>
-        <v>3484.092155413573</v>
+        <f t="shared" si="37"/>
+        <v>3519.7561065415948</v>
       </c>
       <c r="BH26" s="26">
-        <f t="shared" si="36"/>
-        <v>3466.671694636505</v>
+        <f t="shared" si="37"/>
+        <v>3502.1573260088867</v>
       </c>
       <c r="BI26" s="26">
-        <f t="shared" si="36"/>
-        <v>3449.3383361633223</v>
+        <f t="shared" si="37"/>
+        <v>3484.6465393788421</v>
       </c>
       <c r="BJ26" s="26">
-        <f t="shared" si="36"/>
-        <v>3432.0916444825057</v>
+        <f t="shared" si="37"/>
+        <v>3467.2233066819481</v>
       </c>
       <c r="BK26" s="26">
-        <f t="shared" si="36"/>
-        <v>3414.931186260093</v>
+        <f t="shared" si="37"/>
+        <v>3449.8871901485381</v>
       </c>
       <c r="BL26" s="26">
-        <f t="shared" si="36"/>
-        <v>3397.8565303287924</v>
+        <f t="shared" si="37"/>
+        <v>3432.6377541977954</v>
       </c>
       <c r="BM26" s="26">
-        <f t="shared" si="36"/>
-        <v>3380.8672476771485</v>
+        <f t="shared" si="37"/>
+        <v>3415.4745654268063</v>
       </c>
       <c r="BN26" s="26">
-        <f t="shared" si="36"/>
-        <v>3363.9629114387626</v>
+        <f t="shared" si="37"/>
+        <v>3398.3971925996721</v>
       </c>
       <c r="BO26" s="26">
-        <f t="shared" si="36"/>
-        <v>3347.1430968815689</v>
+        <f t="shared" si="37"/>
+        <v>3381.4052066366735</v>
       </c>
       <c r="BP26" s="26">
-        <f t="shared" si="36"/>
-        <v>3330.4073813971609</v>
+        <f t="shared" si="37"/>
+        <v>3364.4981806034903</v>
       </c>
       <c r="BQ26" s="26">
-        <f t="shared" si="36"/>
-        <v>3313.755344490175</v>
+        <f t="shared" si="37"/>
+        <v>3347.675689700473</v>
       </c>
       <c r="BR26" s="26">
-        <f t="shared" si="36"/>
-        <v>3297.1865677677242</v>
+        <f t="shared" si="37"/>
+        <v>3330.9373112519706</v>
       </c>
       <c r="BS26" s="26">
-        <f t="shared" si="36"/>
-        <v>3280.7006349288854</v>
+        <f t="shared" si="37"/>
+        <v>3314.2826246957106</v>
       </c>
       <c r="BT26" s="26">
-        <f t="shared" si="36"/>
-        <v>3264.297131754241</v>
+        <f t="shared" si="37"/>
+        <v>3297.7112115722321</v>
       </c>
       <c r="BU26" s="26">
-        <f t="shared" si="36"/>
-        <v>3247.97564609547</v>
+        <f t="shared" si="37"/>
+        <v>3281.2226555143707</v>
       </c>
       <c r="BV26" s="26">
-        <f t="shared" si="36"/>
-        <v>3231.7357678649928</v>
+        <f t="shared" si="37"/>
+        <v>3264.8165422367988</v>
       </c>
       <c r="BW26" s="26">
-        <f t="shared" si="36"/>
-        <v>3215.5770890256676</v>
+        <f t="shared" si="37"/>
+        <v>3248.4924595256148</v>
       </c>
       <c r="BX26" s="26">
-        <f t="shared" si="36"/>
-        <v>3199.4992035805394</v>
+        <f t="shared" si="37"/>
+        <v>3232.2499972279866</v>
       </c>
       <c r="BY26" s="26">
-        <f t="shared" si="36"/>
-        <v>3183.5017075626365</v>
+        <f t="shared" si="37"/>
+        <v>3216.0887472418467</v>
       </c>
       <c r="BZ26" s="26">
-        <f t="shared" si="36"/>
-        <v>3167.5841990248232</v>
+        <f t="shared" si="37"/>
+        <v>3200.0083035056373</v>
       </c>
       <c r="CA26" s="26">
-        <f t="shared" si="36"/>
-        <v>3151.7462780296992</v>
+        <f t="shared" si="37"/>
+        <v>3184.0082619881091</v>
       </c>
       <c r="CB26" s="26">
-        <f t="shared" si="36"/>
-        <v>3135.9875466395506</v>
+        <f t="shared" si="37"/>
+        <v>3168.0882206781685</v>
       </c>
       <c r="CC26" s="26">
-        <f t="shared" si="36"/>
-        <v>3120.3076089063529</v>
+        <f t="shared" si="37"/>
+        <v>3152.2477795747777</v>
       </c>
       <c r="CD26" s="26">
-        <f t="shared" si="36"/>
-        <v>3104.706070861821</v>
+        <f t="shared" si="37"/>
+        <v>3136.486540676904</v>
       </c>
       <c r="CE26" s="26">
-        <f t="shared" si="36"/>
-        <v>3089.1825405075119</v>
+        <f t="shared" si="37"/>
+        <v>3120.8041079735194</v>
       </c>
       <c r="CF26" s="26">
-        <f t="shared" si="36"/>
-        <v>3073.7366278049744</v>
+        <f t="shared" si="37"/>
+        <v>3105.2000874336518</v>
       </c>
       <c r="CG26" s="26">
-        <f t="shared" ref="CG26:DL26" si="37">CF26*($F$2+1)</f>
-        <v>3058.3679446659494</v>
+        <f t="shared" ref="CG26:DL26" si="38">CF26*($F$2+1)</f>
+        <v>3089.6740869964833</v>
       </c>
       <c r="CH26" s="26">
-        <f t="shared" si="37"/>
-        <v>3043.0761049426196</v>
+        <f t="shared" si="38"/>
+        <v>3074.225716561501</v>
       </c>
       <c r="CI26" s="26">
-        <f t="shared" si="37"/>
-        <v>3027.8607244179066</v>
+        <f t="shared" si="38"/>
+        <v>3058.8545879786934</v>
       </c>
       <c r="CJ26" s="26">
-        <f t="shared" si="37"/>
-        <v>3012.7214207958168</v>
+        <f t="shared" si="38"/>
+        <v>3043.5603150388001</v>
       </c>
       <c r="CK26" s="26">
-        <f t="shared" si="37"/>
-        <v>2997.6578136918379</v>
+        <f t="shared" si="38"/>
+        <v>3028.3425134636063</v>
       </c>
       <c r="CL26" s="26">
-        <f t="shared" si="37"/>
-        <v>2982.6695246233785</v>
+        <f t="shared" si="38"/>
+        <v>3013.2008008962885</v>
       </c>
       <c r="CM26" s="26">
-        <f t="shared" si="37"/>
-        <v>2967.7561770002617</v>
+        <f t="shared" si="38"/>
+        <v>2998.1347968918071</v>
       </c>
       <c r="CN26" s="26">
-        <f t="shared" si="37"/>
-        <v>2952.9173961152605</v>
+        <f t="shared" si="38"/>
+        <v>2983.144122907348</v>
       </c>
       <c r="CO26" s="26">
-        <f t="shared" si="37"/>
-        <v>2938.152809134684</v>
+        <f t="shared" si="38"/>
+        <v>2968.2284022928111</v>
       </c>
       <c r="CP26" s="26">
-        <f t="shared" si="37"/>
-        <v>2923.4620450890106</v>
+        <f t="shared" si="38"/>
+        <v>2953.3872602813472</v>
       </c>
       <c r="CQ26" s="26">
-        <f t="shared" si="37"/>
-        <v>2908.8447348635655</v>
+        <f t="shared" si="38"/>
+        <v>2938.6203239799406</v>
       </c>
       <c r="CR26" s="26">
-        <f t="shared" si="37"/>
-        <v>2894.3005111892476</v>
+        <f t="shared" si="38"/>
+        <v>2923.927222360041</v>
       </c>
       <c r="CS26" s="26">
-        <f t="shared" si="37"/>
-        <v>2879.8290086333013</v>
+        <f t="shared" si="38"/>
+        <v>2909.307586248241</v>
       </c>
       <c r="CT26" s="26">
-        <f t="shared" si="37"/>
-        <v>2865.429863590135</v>
+        <f t="shared" si="38"/>
+        <v>2894.7610483169997</v>
       </c>
       <c r="CU26" s="26">
-        <f t="shared" si="37"/>
-        <v>2851.1027142721841</v>
+        <f t="shared" si="38"/>
+        <v>2880.2872430754146</v>
       </c>
       <c r="CV26" s="26">
-        <f t="shared" si="37"/>
-        <v>2836.8472007008231</v>
+        <f t="shared" si="38"/>
+        <v>2865.8858068600375</v>
       </c>
       <c r="CW26" s="26">
-        <f t="shared" si="37"/>
-        <v>2822.6629646973188</v>
+        <f t="shared" si="38"/>
+        <v>2851.5563778257374</v>
       </c>
       <c r="CX26" s="26">
-        <f t="shared" si="37"/>
-        <v>2808.5496498738321</v>
+        <f t="shared" si="38"/>
+        <v>2837.2985959366088</v>
       </c>
       <c r="CY26" s="26">
-        <f t="shared" si="37"/>
-        <v>2794.5069016244629</v>
+        <f t="shared" si="38"/>
+        <v>2823.1121029569258</v>
       </c>
       <c r="CZ26" s="26">
-        <f t="shared" si="37"/>
-        <v>2780.5343671163405</v>
+        <f t="shared" si="38"/>
+        <v>2808.9965424421412</v>
       </c>
       <c r="DA26" s="26">
-        <f t="shared" si="37"/>
-        <v>2766.6316952807588</v>
+        <f t="shared" si="38"/>
+        <v>2794.9515597299305</v>
       </c>
       <c r="DB26" s="26">
-        <f t="shared" si="37"/>
-        <v>2752.7985368043551</v>
+        <f t="shared" si="38"/>
+        <v>2780.976801931281</v>
       </c>
       <c r="DC26" s="26">
-        <f t="shared" si="37"/>
-        <v>2739.0345441203331</v>
+        <f t="shared" si="38"/>
+        <v>2767.0719179216244</v>
       </c>
       <c r="DD26" s="26">
-        <f t="shared" si="37"/>
-        <v>2725.3393713997316</v>
+        <f t="shared" si="38"/>
+        <v>2753.2365583320161</v>
       </c>
       <c r="DE26" s="26">
-        <f t="shared" si="37"/>
-        <v>2711.7126745427331</v>
+        <f t="shared" si="38"/>
+        <v>2739.4703755403561</v>
       </c>
       <c r="DF26" s="26">
-        <f t="shared" si="37"/>
-        <v>2698.1541111700194</v>
+        <f t="shared" si="38"/>
+        <v>2725.7730236626544</v>
       </c>
       <c r="DG26" s="26">
-        <f t="shared" si="37"/>
-        <v>2684.6633406141691</v>
+        <f t="shared" si="38"/>
+        <v>2712.1441585443413</v>
       </c>
       <c r="DH26" s="26">
-        <f t="shared" si="37"/>
-        <v>2671.2400239110984</v>
+        <f t="shared" si="38"/>
+        <v>2698.5834377516194</v>
       </c>
       <c r="DI26" s="26">
-        <f t="shared" si="37"/>
-        <v>2657.8838237915429</v>
+        <f t="shared" si="38"/>
+        <v>2685.0905205628615</v>
       </c>
       <c r="DJ26" s="26">
-        <f t="shared" si="37"/>
-        <v>2644.5944046725854</v>
+        <f t="shared" si="38"/>
+        <v>2671.6650679600471</v>
       </c>
       <c r="DK26" s="26">
-        <f t="shared" si="37"/>
-        <v>2631.3714326492222</v>
+        <f t="shared" si="38"/>
+        <v>2658.306742620247</v>
       </c>
       <c r="DL26" s="26">
-        <f t="shared" si="37"/>
-        <v>2618.2145754859762</v>
+        <f t="shared" si="38"/>
+        <v>2645.0152089071457</v>
       </c>
       <c r="DM26" s="26">
-        <f t="shared" ref="DM26:ER26" si="38">DL26*($F$2+1)</f>
-        <v>2605.1235026085465</v>
+        <f t="shared" ref="DM26:ER26" si="39">DL26*($F$2+1)</f>
+        <v>2631.7901328626099</v>
       </c>
       <c r="DN26" s="26">
-        <f t="shared" si="38"/>
-        <v>2592.0978850955039</v>
+        <f t="shared" si="39"/>
+        <v>2618.6311821982968</v>
       </c>
       <c r="DO26" s="26">
-        <f t="shared" si="38"/>
-        <v>2579.1373956700263</v>
+        <f t="shared" si="39"/>
+        <v>2605.5380262873055</v>
       </c>
       <c r="DP26" s="26">
-        <f t="shared" si="38"/>
-        <v>2566.2417086916762</v>
+        <f t="shared" si="39"/>
+        <v>2592.510336155869</v>
       </c>
       <c r="DQ26" s="26">
-        <f t="shared" si="38"/>
-        <v>2553.4105001482176</v>
+        <f t="shared" si="39"/>
+        <v>2579.5477844750899</v>
       </c>
       <c r="DR26" s="26">
-        <f t="shared" si="38"/>
-        <v>2540.6434476474765</v>
+        <f t="shared" si="39"/>
+        <v>2566.6500455527143</v>
       </c>
       <c r="DS26" s="26">
-        <f t="shared" si="38"/>
-        <v>2527.9402304092391</v>
+        <f t="shared" si="39"/>
+        <v>2553.8167953249508</v>
       </c>
       <c r="DT26" s="26">
-        <f t="shared" si="38"/>
-        <v>2515.3005292571929</v>
+        <f t="shared" si="39"/>
+        <v>2541.0477113483262</v>
       </c>
       <c r="DU26" s="26">
-        <f t="shared" si="38"/>
-        <v>2502.724026610907</v>
+        <f t="shared" si="39"/>
+        <v>2528.3424727915844</v>
       </c>
       <c r="DV26" s="26">
-        <f t="shared" si="38"/>
-        <v>2490.2104064778523</v>
+        <f t="shared" si="39"/>
+        <v>2515.7007604276264</v>
       </c>
       <c r="DW26" s="26">
-        <f t="shared" si="38"/>
-        <v>2477.759354445463</v>
+        <f t="shared" si="39"/>
+        <v>2503.1222566254883</v>
       </c>
       <c r="DX26" s="26">
-        <f t="shared" si="38"/>
-        <v>2465.3705576732359</v>
+        <f t="shared" si="39"/>
+        <v>2490.6066453423609</v>
       </c>
       <c r="DY26" s="26">
-        <f t="shared" si="38"/>
-        <v>2453.0437048848698</v>
+        <f t="shared" si="39"/>
+        <v>2478.1536121156491</v>
       </c>
       <c r="DZ26" s="26">
-        <f t="shared" si="38"/>
-        <v>2440.7784863604456</v>
+        <f t="shared" si="39"/>
+        <v>2465.7628440550707</v>
       </c>
       <c r="EA26" s="26">
-        <f t="shared" si="38"/>
-        <v>2428.5745939286435</v>
+        <f t="shared" si="39"/>
+        <v>2453.4340298347952</v>
       </c>
       <c r="EB26" s="26">
-        <f t="shared" si="38"/>
-        <v>2416.4317209590004</v>
+        <f t="shared" si="39"/>
+        <v>2441.1668596856211</v>
       </c>
       <c r="EC26" s="26">
-        <f t="shared" si="38"/>
-        <v>2404.3495623542053</v>
+        <f t="shared" si="39"/>
+        <v>2428.9610253871929</v>
       </c>
       <c r="ED26" s="26">
-        <f t="shared" si="38"/>
-        <v>2392.3278145424342</v>
+        <f t="shared" si="39"/>
+        <v>2416.8162202602571</v>
       </c>
       <c r="EE26" s="26">
-        <f t="shared" si="38"/>
-        <v>2380.3661754697218</v>
+        <f t="shared" si="39"/>
+        <v>2404.7321391589558</v>
       </c>
       <c r="EF26" s="26">
-        <f t="shared" si="38"/>
-        <v>2368.4643445923734</v>
+        <f t="shared" si="39"/>
+        <v>2392.7084784631611</v>
       </c>
       <c r="EG26" s="26">
-        <f t="shared" si="38"/>
-        <v>2356.6220228694115</v>
+        <f t="shared" si="39"/>
+        <v>2380.7449360708451</v>
       </c>
       <c r="EH26" s="26">
-        <f t="shared" si="38"/>
-        <v>2344.8389127550645</v>
+        <f t="shared" si="39"/>
+        <v>2368.841211390491</v>
       </c>
       <c r="EI26" s="26">
-        <f t="shared" si="38"/>
-        <v>2333.1147181912893</v>
+        <f t="shared" si="39"/>
+        <v>2356.9970053335387</v>
       </c>
       <c r="EJ26" s="26">
-        <f t="shared" si="38"/>
-        <v>2321.4491446003326</v>
+        <f t="shared" si="39"/>
+        <v>2345.2120203068712</v>
       </c>
       <c r="EK26" s="26">
-        <f t="shared" si="38"/>
-        <v>2309.841898877331</v>
+        <f t="shared" si="39"/>
+        <v>2333.4859602053366</v>
       </c>
       <c r="EL26" s="26">
-        <f t="shared" si="38"/>
-        <v>2298.2926893829444</v>
+        <f t="shared" si="39"/>
+        <v>2321.81853040431</v>
       </c>
       <c r="EM26" s="26">
-        <f t="shared" si="38"/>
-        <v>2286.8012259360298</v>
+        <f t="shared" si="39"/>
+        <v>2310.2094377522885</v>
       </c>
       <c r="EN26" s="26">
-        <f t="shared" si="38"/>
-        <v>2275.3672198063496</v>
+        <f t="shared" si="39"/>
+        <v>2298.6583905635271</v>
       </c>
       <c r="EO26" s="26">
-        <f t="shared" si="38"/>
-        <v>2263.990383707318</v>
+        <f t="shared" si="39"/>
+        <v>2287.1650986107093</v>
       </c>
       <c r="EP26" s="26">
-        <f t="shared" si="38"/>
-        <v>2252.6704317887816</v>
+        <f t="shared" si="39"/>
+        <v>2275.7292731176558</v>
       </c>
       <c r="EQ26" s="26">
-        <f t="shared" si="38"/>
-        <v>2241.4070796298374</v>
+        <f t="shared" si="39"/>
+        <v>2264.3506267520675</v>
       </c>
       <c r="ER26" s="26">
-        <f t="shared" si="38"/>
-        <v>2230.200044231688</v>
+        <f t="shared" si="39"/>
+        <v>2253.028873618307</v>
       </c>
       <c r="ES26" s="26">
-        <f t="shared" ref="ES26:FX26" si="39">ER26*($F$2+1)</f>
-        <v>2219.0490440105295</v>
+        <f t="shared" ref="ES26:FX26" si="40">ER26*($F$2+1)</f>
+        <v>2241.7637292502154</v>
       </c>
       <c r="ET26" s="26">
-        <f t="shared" si="39"/>
-        <v>2207.9537987904769</v>
+        <f t="shared" si="40"/>
+        <v>2230.5549106039643</v>
       </c>
       <c r="EU26" s="26">
-        <f t="shared" si="39"/>
-        <v>2196.9140297965246</v>
+        <f t="shared" si="40"/>
+        <v>2219.4021360509446</v>
       </c>
       <c r="EV26" s="26">
-        <f t="shared" si="39"/>
-        <v>2185.929459647542</v>
+        <f t="shared" si="40"/>
+        <v>2208.3051253706899</v>
       </c>
       <c r="EW26" s="26">
-        <f t="shared" si="39"/>
-        <v>2174.9998123493042</v>
+        <f t="shared" si="40"/>
+        <v>2197.2635997438365</v>
       </c>
       <c r="EX26" s="26">
-        <f t="shared" si="39"/>
-        <v>2164.1248132875576</v>
+        <f t="shared" si="40"/>
+        <v>2186.2772817451173</v>
       </c>
       <c r="EY26" s="26">
-        <f t="shared" si="39"/>
-        <v>2153.3041892211199</v>
+        <f t="shared" si="40"/>
+        <v>2175.3458953363915</v>
       </c>
       <c r="EZ26" s="26">
-        <f t="shared" si="39"/>
-        <v>2142.5376682750143</v>
+        <f t="shared" si="40"/>
+        <v>2164.4691658597094</v>
       </c>
       <c r="FA26" s="26">
-        <f t="shared" si="39"/>
-        <v>2131.824979933639</v>
+        <f t="shared" si="40"/>
+        <v>2153.6468200304107</v>
       </c>
       <c r="FB26" s="26">
-        <f t="shared" si="39"/>
-        <v>2121.1658550339707</v>
+        <f t="shared" si="40"/>
+        <v>2142.8785859302589</v>
       </c>
       <c r="FC26" s="26">
-        <f t="shared" si="39"/>
-        <v>2110.5600257588007</v>
+        <f t="shared" si="40"/>
+        <v>2132.1641930006076</v>
       </c>
       <c r="FD26" s="26">
-        <f t="shared" si="39"/>
-        <v>2100.0072256300068</v>
+        <f t="shared" si="40"/>
+        <v>2121.5033720356046</v>
       </c>
       <c r="FE26" s="26">
-        <f t="shared" si="39"/>
-        <v>2089.5071895018568</v>
+        <f t="shared" si="40"/>
+        <v>2110.8958551754267</v>
       </c>
       <c r="FF26" s="26">
-        <f t="shared" si="39"/>
-        <v>2079.0596535543477</v>
+        <f t="shared" si="40"/>
+        <v>2100.3413758995498</v>
       </c>
       <c r="FG26" s="26">
-        <f t="shared" si="39"/>
-        <v>2068.6643552865762</v>
+        <f t="shared" si="40"/>
+        <v>2089.839669020052</v>
       </c>
       <c r="FH26" s="26">
-        <f t="shared" si="39"/>
-        <v>2058.3210335101435</v>
+        <f t="shared" si="40"/>
+        <v>2079.3904706749518</v>
       </c>
       <c r="FI26" s="26">
-        <f t="shared" si="39"/>
-        <v>2048.0294283425928</v>
+        <f t="shared" si="40"/>
+        <v>2068.9935183215771</v>
       </c>
       <c r="FJ26" s="26">
-        <f t="shared" si="39"/>
-        <v>2037.7892812008799</v>
+        <f t="shared" si="40"/>
+        <v>2058.648550729969</v>
       </c>
       <c r="FK26" s="26">
-        <f t="shared" si="39"/>
-        <v>2027.6003347948756</v>
+        <f t="shared" si="40"/>
+        <v>2048.3553079763192</v>
       </c>
       <c r="FL26" s="26">
-        <f t="shared" si="39"/>
-        <v>2017.4623331209011</v>
+        <f t="shared" si="40"/>
+        <v>2038.1135314364376</v>
       </c>
       <c r="FM26" s="26">
-        <f t="shared" si="39"/>
-        <v>2007.3750214552965</v>
+        <f t="shared" si="40"/>
+        <v>2027.9229637792555</v>
       </c>
       <c r="FN26" s="26">
-        <f t="shared" si="39"/>
-        <v>1997.33814634802</v>
+        <f t="shared" si="40"/>
+        <v>2017.7833489603593</v>
       </c>
       <c r="FO26" s="26">
-        <f t="shared" si="39"/>
-        <v>1987.35145561628</v>
+        <f t="shared" si="40"/>
+        <v>2007.6944322155575</v>
       </c>
       <c r="FP26" s="26">
-        <f t="shared" si="39"/>
-        <v>1977.4146983381986</v>
+        <f t="shared" si="40"/>
+        <v>1997.6559600544797</v>
       </c>
       <c r="FQ26" s="26">
-        <f t="shared" si="39"/>
-        <v>1967.5276248465077</v>
+        <f t="shared" si="40"/>
+        <v>1987.6676802542072</v>
       </c>
       <c r="FR26" s="26">
-        <f t="shared" si="39"/>
-        <v>1957.6899867222751</v>
+        <f t="shared" si="40"/>
+        <v>1977.7293418529362</v>
       </c>
       <c r="FS26" s="26">
-        <f t="shared" si="39"/>
-        <v>1947.9015367886636</v>
+        <f t="shared" si="40"/>
+        <v>1967.8406951436714</v>
       </c>
       <c r="FT26" s="26">
-        <f t="shared" si="39"/>
-        <v>1938.1620291047202</v>
+        <f t="shared" si="40"/>
+        <v>1958.0014916679529</v>
       </c>
       <c r="FU26" s="26">
-        <f t="shared" si="39"/>
-        <v>1928.4712189591967</v>
+        <f t="shared" si="40"/>
+        <v>1948.2114842096132</v>
       </c>
       <c r="FV26" s="26">
-        <f t="shared" si="39"/>
-        <v>1918.8288628644007</v>
+        <f t="shared" si="40"/>
+        <v>1938.4704267885652</v>
       </c>
       <c r="FW26" s="26">
-        <f t="shared" si="39"/>
-        <v>1909.2347185500787</v>
+        <f t="shared" si="40"/>
+        <v>1928.7780746546223</v>
       </c>
       <c r="FX26" s="26">
-        <f t="shared" si="39"/>
-        <v>1899.6885449573283</v>
+        <f t="shared" si="40"/>
+        <v>1919.1341842813492</v>
       </c>
       <c r="FY26" s="26">
-        <f t="shared" ref="FY26:GQ26" si="40">FX26*($F$2+1)</f>
-        <v>1890.1901022325417</v>
+        <f t="shared" ref="FY26:GQ26" si="41">FX26*($F$2+1)</f>
+        <v>1909.5385133599425</v>
       </c>
       <c r="FZ26" s="26">
-        <f t="shared" si="40"/>
-        <v>1880.7391517213789</v>
+        <f t="shared" si="41"/>
+        <v>1899.9908207931428</v>
       </c>
       <c r="GA26" s="26">
-        <f t="shared" si="40"/>
-        <v>1871.3354559627719</v>
+        <f t="shared" si="41"/>
+        <v>1890.490866689177</v>
       </c>
       <c r="GB26" s="26">
-        <f t="shared" si="40"/>
-        <v>1861.9787786829581</v>
+        <f t="shared" si="41"/>
+        <v>1881.038412355731</v>
       </c>
       <c r="GC26" s="26">
-        <f t="shared" si="40"/>
-        <v>1852.6688847895434</v>
+        <f t="shared" si="41"/>
+        <v>1871.6332202939523</v>
       </c>
       <c r="GD26" s="26">
-        <f t="shared" si="40"/>
-        <v>1843.4055403655957</v>
+        <f t="shared" si="41"/>
+        <v>1862.2750541924825</v>
       </c>
       <c r="GE26" s="26">
-        <f t="shared" si="40"/>
-        <v>1834.1885126637678</v>
+        <f t="shared" si="41"/>
+        <v>1852.9636789215201</v>
       </c>
       <c r="GF26" s="26">
-        <f t="shared" si="40"/>
-        <v>1825.0175701004489</v>
+        <f t="shared" si="41"/>
+        <v>1843.6988605269125</v>
       </c>
       <c r="GG26" s="26">
-        <f t="shared" si="40"/>
-        <v>1815.8924822499466</v>
+        <f t="shared" si="41"/>
+        <v>1834.480366224278</v>
       </c>
       <c r="GH26" s="26">
-        <f t="shared" si="40"/>
-        <v>1806.8130198386968</v>
+        <f t="shared" si="41"/>
+        <v>1825.3079643931567</v>
       </c>
       <c r="GI26" s="26">
-        <f t="shared" si="40"/>
-        <v>1797.7789547395034</v>
+        <f t="shared" si="41"/>
+        <v>1816.181424571191</v>
       </c>
       <c r="GJ26" s="26">
-        <f t="shared" si="40"/>
-        <v>1788.790059965806</v>
+        <f t="shared" si="41"/>
+        <v>1807.100517448335</v>
       </c>
       <c r="GK26" s="26">
-        <f t="shared" si="40"/>
-        <v>1779.8461096659769</v>
+        <f t="shared" si="41"/>
+        <v>1798.0650148610935</v>
       </c>
       <c r="GL26" s="26">
-        <f t="shared" si="40"/>
-        <v>1770.9468791176471</v>
+        <f t="shared" si="41"/>
+        <v>1789.074689786788</v>
       </c>
       <c r="GM26" s="26">
-        <f t="shared" si="40"/>
-        <v>1762.0921447220589</v>
+        <f t="shared" si="41"/>
+        <v>1780.1293163378541</v>
       </c>
       <c r="GN26" s="26">
-        <f t="shared" si="40"/>
-        <v>1753.2816839984487</v>
+        <f t="shared" si="41"/>
+        <v>1771.2286697561649</v>
       </c>
       <c r="GO26" s="26">
-        <f t="shared" si="40"/>
-        <v>1744.5152755784563</v>
+        <f t="shared" si="41"/>
+        <v>1762.3725264073842</v>
       </c>
       <c r="GP26" s="26">
-        <f t="shared" si="40"/>
-        <v>1735.7926992005641</v>
+        <f t="shared" si="41"/>
+        <v>1753.5606637753472</v>
       </c>
       <c r="GQ26" s="26">
-        <f t="shared" si="40"/>
-        <v>1727.1137357045613</v>
+        <f t="shared" si="41"/>
+        <v>1744.7928604564704</v>
       </c>
     </row>
     <row r="27" spans="1:199" x14ac:dyDescent="0.15">
@@ -4618,76 +4597,76 @@
       </c>
       <c r="B27" s="62"/>
       <c r="C27" s="31">
-        <f t="shared" ref="C27:F27" si="41">C26/C28</f>
+        <f t="shared" ref="C27:F27" si="42">C26/C28</f>
         <v>-0.73309801152083665</v>
       </c>
       <c r="D27" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-1.2539175914781713</v>
       </c>
       <c r="E27" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-2.3620385121624925</v>
       </c>
       <c r="F27" s="52">
-        <f t="shared" si="41"/>
-        <v>-1.7359312078516818</v>
+        <f t="shared" si="42"/>
+        <v>-1.7093496217434596</v>
       </c>
       <c r="G27" s="52">
-        <f t="shared" ref="G27" si="42">G26/G28</f>
-        <v>-0.97191744971310901</v>
+        <f t="shared" ref="G27" si="43">G26/G28</f>
+        <v>-0.93318807875343146</v>
       </c>
       <c r="H27" s="52">
-        <f t="shared" ref="H27:O27" si="43">H26/H28</f>
-        <v>0.5044048709158151</v>
+        <f t="shared" ref="H27:O27" si="44">H26/H28</f>
+        <v>0.56063473413997866</v>
       </c>
       <c r="I27" s="52">
-        <f t="shared" si="43"/>
-        <v>3.0932563404608016</v>
+        <f t="shared" si="44"/>
+        <v>3.1746947252195366</v>
       </c>
       <c r="J27" s="52">
-        <f t="shared" si="43"/>
-        <v>7.3921625210207917</v>
+        <f t="shared" si="44"/>
+        <v>7.5099091222784837</v>
       </c>
       <c r="K27" s="52">
-        <f t="shared" si="43"/>
-        <v>8.8830443548590878</v>
+        <f t="shared" si="44"/>
+        <v>9.0142222438153397</v>
       </c>
       <c r="L27" s="52">
-        <f t="shared" si="43"/>
-        <v>10.543888827805608</v>
+        <f t="shared" si="44"/>
+        <v>10.68986929589903</v>
       </c>
       <c r="M27" s="52">
-        <f t="shared" si="43"/>
-        <v>12.392935706482566</v>
+        <f t="shared" si="44"/>
+        <v>12.555227653060973</v>
       </c>
       <c r="N27" s="52">
-        <f t="shared" si="43"/>
-        <v>14.450304628970223</v>
+        <f t="shared" si="44"/>
+        <v>14.630568330220591</v>
       </c>
       <c r="O27" s="52">
-        <f t="shared" si="43"/>
-        <v>16.738185973458698</v>
+        <f t="shared" si="44"/>
+        <v>16.938248228368472</v>
       </c>
       <c r="P27" s="52">
-        <f t="shared" ref="P27:T27" si="44">P26/P28</f>
-        <v>19.281050955444652</v>
+        <f t="shared" ref="P27:T27" si="45">P26/P28</f>
+        <v>19.502921746499851</v>
       </c>
       <c r="Q27" s="52">
-        <f t="shared" si="44"/>
-        <v>22.105882883447929</v>
+        <f t="shared" si="45"/>
+        <v>22.351773703544225</v>
       </c>
       <c r="R27" s="52">
-        <f t="shared" si="44"/>
-        <v>25.242431696576066</v>
+        <f t="shared" si="45"/>
+        <v>25.514775708766471</v>
       </c>
       <c r="S27" s="52">
-        <f t="shared" si="44"/>
-        <v>28.723494119970013</v>
+        <f t="shared" si="45"/>
+        <v>29.024968333335391</v>
       </c>
       <c r="T27" s="52">
-        <f t="shared" si="44"/>
-        <v>32.585222008159462</v>
+        <f t="shared" si="45"/>
+        <v>32.918771671416529</v>
       </c>
       <c r="U27" s="42"/>
       <c r="V27" s="42"/>
@@ -4804,63 +4783,63 @@
         <v>130.00761775000001</v>
       </c>
       <c r="F28" s="24">
-        <f t="shared" ref="F28" si="45">E28</f>
+        <f t="shared" ref="F28" si="46">E28</f>
         <v>130.00761775000001</v>
       </c>
       <c r="G28" s="24">
-        <f t="shared" ref="G28" si="46">F28</f>
+        <f t="shared" ref="G28" si="47">F28</f>
         <v>130.00761775000001</v>
       </c>
       <c r="H28" s="24">
-        <f t="shared" ref="H28" si="47">G28</f>
+        <f t="shared" ref="H28" si="48">G28</f>
         <v>130.00761775000001</v>
       </c>
       <c r="I28" s="24">
-        <f t="shared" ref="I28" si="48">H28</f>
+        <f t="shared" ref="I28" si="49">H28</f>
         <v>130.00761775000001</v>
       </c>
       <c r="J28" s="24">
-        <f t="shared" ref="J28" si="49">I28</f>
+        <f t="shared" ref="J28" si="50">I28</f>
         <v>130.00761775000001</v>
       </c>
       <c r="K28" s="24">
-        <f t="shared" ref="K28" si="50">J28</f>
+        <f t="shared" ref="K28" si="51">J28</f>
         <v>130.00761775000001</v>
       </c>
       <c r="L28" s="24">
-        <f t="shared" ref="L28" si="51">K28</f>
+        <f t="shared" ref="L28" si="52">K28</f>
         <v>130.00761775000001</v>
       </c>
       <c r="M28" s="24">
-        <f t="shared" ref="M28" si="52">L28</f>
+        <f t="shared" ref="M28" si="53">L28</f>
         <v>130.00761775000001</v>
       </c>
       <c r="N28" s="24">
-        <f t="shared" ref="N28" si="53">M28</f>
+        <f t="shared" ref="N28" si="54">M28</f>
         <v>130.00761775000001</v>
       </c>
       <c r="O28" s="24">
-        <f t="shared" ref="O28:T28" si="54">N28</f>
+        <f t="shared" ref="O28:T28" si="55">N28</f>
         <v>130.00761775000001</v>
       </c>
       <c r="P28" s="24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>130.00761775000001</v>
       </c>
       <c r="Q28" s="24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>130.00761775000001</v>
       </c>
       <c r="R28" s="24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>130.00761775000001</v>
       </c>
       <c r="S28" s="24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>130.00761775000001</v>
       </c>
       <c r="T28" s="24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>130.00761775000001</v>
       </c>
       <c r="U28" s="41"/>
@@ -5083,7 +5062,7 @@
       </c>
       <c r="B30" s="62"/>
       <c r="C30" s="37">
-        <f t="shared" ref="B30:O30" si="55">IFERROR(C17/C15,0)</f>
+        <f t="shared" ref="C30:O30" si="56">IFERROR(C17/C15,0)</f>
         <v>0.54163951681619971</v>
       </c>
       <c r="D30" s="37">
@@ -5091,11 +5070,11 @@
         <v>0.53721539472085189</v>
       </c>
       <c r="E30" s="37">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.53674233208869704</v>
       </c>
       <c r="F30" s="37">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.53674233208869704</v>
       </c>
       <c r="G30" s="37">
@@ -5103,55 +5082,55 @@
         <v>0.53674233208869704</v>
       </c>
       <c r="H30" s="37">
-        <f t="shared" si="55"/>
-        <v>0.53674233208869704</v>
-      </c>
-      <c r="I30" s="37">
-        <f t="shared" si="55"/>
-        <v>0.53674233208869704</v>
-      </c>
-      <c r="J30" s="37">
-        <f t="shared" si="55"/>
-        <v>0.53674233208869704</v>
-      </c>
-      <c r="K30" s="37">
-        <f t="shared" si="55"/>
-        <v>0.53674233208869704</v>
-      </c>
-      <c r="L30" s="37">
-        <f t="shared" si="55"/>
-        <v>0.53674233208869704</v>
-      </c>
-      <c r="M30" s="37">
-        <f t="shared" si="55"/>
-        <v>0.53674233208869704</v>
-      </c>
-      <c r="N30" s="37">
-        <f t="shared" si="55"/>
-        <v>0.53674233208869704</v>
-      </c>
-      <c r="O30" s="37">
-        <f t="shared" si="55"/>
-        <v>0.53674233208869704</v>
-      </c>
-      <c r="P30" s="37">
-        <f t="shared" ref="P30:T30" si="56">IFERROR(P17/P15,0)</f>
-        <v>0.53674233208869704</v>
-      </c>
-      <c r="Q30" s="37">
         <f t="shared" si="56"/>
         <v>0.53674233208869704</v>
       </c>
-      <c r="R30" s="37">
+      <c r="I30" s="37">
         <f t="shared" si="56"/>
         <v>0.53674233208869704</v>
       </c>
-      <c r="S30" s="37">
+      <c r="J30" s="37">
         <f t="shared" si="56"/>
         <v>0.53674233208869704</v>
       </c>
+      <c r="K30" s="37">
+        <f t="shared" si="56"/>
+        <v>0.53674233208869704</v>
+      </c>
+      <c r="L30" s="37">
+        <f t="shared" si="56"/>
+        <v>0.53674233208869704</v>
+      </c>
+      <c r="M30" s="37">
+        <f t="shared" si="56"/>
+        <v>0.53674233208869704</v>
+      </c>
+      <c r="N30" s="37">
+        <f t="shared" si="56"/>
+        <v>0.53674233208869704</v>
+      </c>
+      <c r="O30" s="37">
+        <f t="shared" si="56"/>
+        <v>0.53674233208869704</v>
+      </c>
+      <c r="P30" s="37">
+        <f t="shared" ref="P30:T30" si="57">IFERROR(P17/P15,0)</f>
+        <v>0.53674233208869704</v>
+      </c>
+      <c r="Q30" s="37">
+        <f t="shared" si="57"/>
+        <v>0.53674233208869704</v>
+      </c>
+      <c r="R30" s="37">
+        <f t="shared" si="57"/>
+        <v>0.53674233208869704</v>
+      </c>
+      <c r="S30" s="37">
+        <f t="shared" si="57"/>
+        <v>0.53674233208869704</v>
+      </c>
       <c r="T30" s="37">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.53674233208869704</v>
       </c>
       <c r="U30" s="42"/>
@@ -5257,7 +5236,7 @@
       </c>
       <c r="B31" s="62"/>
       <c r="C31" s="39">
-        <f t="shared" ref="B31:O31" si="57">IFERROR(C22/C15,0)</f>
+        <f t="shared" ref="C31:O31" si="58">IFERROR(C22/C15,0)</f>
         <v>-0.17010425542579319</v>
       </c>
       <c r="D31" s="39">
@@ -5265,68 +5244,68 @@
         <v>-0.17809548861886543</v>
       </c>
       <c r="E31" s="39">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-0.32621722252192231</v>
       </c>
       <c r="F31" s="39">
         <f>IFERROR(F22/F15,0)</f>
-        <v>-0.17314930607635251</v>
+        <v>-0.16999019800347451</v>
       </c>
       <c r="G31" s="39">
-        <f t="shared" si="57"/>
-        <v>-7.0504122732501617E-2</v>
+        <f t="shared" si="58"/>
+        <v>-6.7801798779777309E-2</v>
       </c>
       <c r="H31" s="39">
-        <f t="shared" si="57"/>
-        <v>1.6019456227224053E-2</v>
+        <f t="shared" si="58"/>
+        <v>1.8336739249627788E-2</v>
       </c>
       <c r="I31" s="39">
-        <f t="shared" si="57"/>
-        <v>8.9120768490843161E-2</v>
+        <f t="shared" si="58"/>
+        <v>9.1112741376749212E-2</v>
       </c>
       <c r="J31" s="39">
-        <f t="shared" si="57"/>
-        <v>0.15102625435459641</v>
+        <f t="shared" si="58"/>
+        <v>0.15274273995535409</v>
       </c>
       <c r="K31" s="39">
-        <f t="shared" si="57"/>
-        <v>0.16334929730669284</v>
+        <f t="shared" si="58"/>
+        <v>0.16501094379908596</v>
       </c>
       <c r="L31" s="39">
-        <f t="shared" si="57"/>
-        <v>0.17469251858482929</v>
+        <f t="shared" si="58"/>
+        <v>0.17630368629991958</v>
       </c>
       <c r="M31" s="39">
-        <f t="shared" si="57"/>
-        <v>0.18514623917687206</v>
+        <f t="shared" si="58"/>
+        <v>0.18671088650583795</v>
       </c>
       <c r="N31" s="39">
-        <f t="shared" si="57"/>
-        <v>0.19479167999243324</v>
+        <f t="shared" si="58"/>
+        <v>0.19631340388307594</v>
       </c>
       <c r="O31" s="39">
-        <f t="shared" si="57"/>
-        <v>0.20370192036593401</v>
+        <f t="shared" si="58"/>
+        <v>0.20518399255372255</v>
       </c>
       <c r="P31" s="39">
-        <f t="shared" ref="P31:T31" si="58">IFERROR(P22/P15,0)</f>
-        <v>0.21194275355173148</v>
+        <f t="shared" ref="P31:T31" si="59">IFERROR(P22/P15,0)</f>
+        <v>0.21338815298378538</v>
       </c>
       <c r="Q31" s="39">
-        <f t="shared" si="58"/>
-        <v>0.2195734503778087</v>
+        <f t="shared" si="59"/>
+        <v>0.22098489223852502</v>
       </c>
       <c r="R31" s="39">
-        <f t="shared" si="58"/>
-        <v>0.22664744100958126</v>
+        <f t="shared" si="59"/>
+        <v>0.2280274027123258</v>
       </c>
       <c r="S31" s="39">
-        <f t="shared" si="58"/>
-        <v>0.23321292369281649</v>
+        <f t="shared" si="59"/>
+        <v>0.23456366816263163</v>
       </c>
       <c r="T31" s="39">
-        <f t="shared" si="58"/>
-        <v>0.23931340838006479</v>
+        <f t="shared" si="59"/>
+        <v>0.24063700491717033</v>
       </c>
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
@@ -5431,7 +5410,7 @@
       </c>
       <c r="B32" s="62"/>
       <c r="C32" s="39">
-        <f t="shared" ref="B32:O32" si="59">IFERROR(C25/C24,0)</f>
+        <f t="shared" ref="C32:O32" si="60">IFERROR(C25/C24,0)</f>
         <v>-1.5180265654648957E-2</v>
       </c>
       <c r="D32" s="39">
@@ -5439,67 +5418,67 @@
         <v>0</v>
       </c>
       <c r="E32" s="39">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.15423470666486722</v>
       </c>
       <c r="F32" s="39">
-        <f t="shared" si="59"/>
-        <v>0.15</v>
-      </c>
-      <c r="G32" s="39">
-        <f t="shared" si="59"/>
-        <v>0.15</v>
-      </c>
-      <c r="H32" s="39">
-        <f t="shared" si="59"/>
-        <v>0.15</v>
-      </c>
-      <c r="I32" s="39">
-        <f t="shared" si="59"/>
-        <v>0.15</v>
-      </c>
-      <c r="J32" s="39">
-        <f t="shared" si="59"/>
-        <v>0.15</v>
-      </c>
-      <c r="K32" s="39">
-        <f t="shared" si="59"/>
-        <v>0.15</v>
-      </c>
-      <c r="L32" s="39">
-        <f t="shared" si="59"/>
-        <v>0.15</v>
-      </c>
-      <c r="M32" s="39">
-        <f t="shared" si="59"/>
-        <v>0.15</v>
-      </c>
-      <c r="N32" s="39">
-        <f t="shared" si="59"/>
-        <v>0.15</v>
-      </c>
-      <c r="O32" s="39">
-        <f t="shared" si="59"/>
-        <v>0.15</v>
-      </c>
-      <c r="P32" s="39">
-        <f t="shared" ref="P32:T32" si="60">IFERROR(P25/P24,0)</f>
-        <v>0.15</v>
-      </c>
-      <c r="Q32" s="39">
         <f t="shared" si="60"/>
         <v>0.15</v>
       </c>
-      <c r="R32" s="39">
+      <c r="G32" s="39">
         <f t="shared" si="60"/>
         <v>0.15</v>
       </c>
-      <c r="S32" s="39">
+      <c r="H32" s="39">
         <f t="shared" si="60"/>
         <v>0.15</v>
       </c>
+      <c r="I32" s="39">
+        <f t="shared" si="60"/>
+        <v>0.15</v>
+      </c>
+      <c r="J32" s="39">
+        <f t="shared" si="60"/>
+        <v>0.15</v>
+      </c>
+      <c r="K32" s="39">
+        <f t="shared" si="60"/>
+        <v>0.15</v>
+      </c>
+      <c r="L32" s="39">
+        <f t="shared" si="60"/>
+        <v>0.15</v>
+      </c>
+      <c r="M32" s="39">
+        <f t="shared" si="60"/>
+        <v>0.15</v>
+      </c>
+      <c r="N32" s="39">
+        <f t="shared" si="60"/>
+        <v>0.15</v>
+      </c>
+      <c r="O32" s="39">
+        <f t="shared" si="60"/>
+        <v>0.15</v>
+      </c>
+      <c r="P32" s="39">
+        <f t="shared" ref="P32:T32" si="61">IFERROR(P25/P24,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="Q32" s="39">
+        <f t="shared" si="61"/>
+        <v>0.15</v>
+      </c>
+      <c r="R32" s="39">
+        <f t="shared" si="61"/>
+        <v>0.15</v>
+      </c>
+      <c r="S32" s="39">
+        <f t="shared" si="61"/>
+        <v>0.15</v>
+      </c>
       <c r="T32" s="39">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.15</v>
       </c>
       <c r="U32" s="42"/>
@@ -5723,7 +5702,7 @@
       <c r="B34" s="62"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53">
-        <f t="shared" ref="C34:T34" si="61">D15/C15-1</f>
+        <f t="shared" ref="D34:T34" si="62">D15/C15-1</f>
         <v>0.62915893940153378</v>
       </c>
       <c r="E34" s="53">
@@ -5731,63 +5710,63 @@
         <v>0.74515549935621994</v>
       </c>
       <c r="F34" s="53">
-        <f t="shared" si="61"/>
-        <v>0.49369960319970763</v>
+        <f t="shared" si="62"/>
+        <v>0.50037646930392898</v>
       </c>
       <c r="G34" s="53">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
+        <v>0.43999999999999972</v>
+      </c>
+      <c r="H34" s="53">
+        <f t="shared" si="62"/>
         <v>0.44000000000000017</v>
       </c>
-      <c r="H34" s="53">
-        <f t="shared" si="61"/>
+      <c r="I34" s="53">
+        <f t="shared" si="62"/>
+        <v>0.43999999999999972</v>
+      </c>
+      <c r="J34" s="53">
+        <f t="shared" si="62"/>
         <v>0.43999999999999995</v>
       </c>
-      <c r="I34" s="53">
-        <f t="shared" si="61"/>
-        <v>0.43999999999999995</v>
-      </c>
-      <c r="J34" s="53">
-        <f t="shared" si="61"/>
-        <v>0.43999999999999995</v>
-      </c>
       <c r="K34" s="53">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="L34" s="53">
-        <f t="shared" si="61"/>
-        <v>9.9999999999999867E-2</v>
+        <f t="shared" si="62"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="M34" s="53">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N34" s="53">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O34" s="53">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P34" s="53">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q34" s="53">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R34" s="53">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="S34" s="53">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="T34" s="53">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="U34" s="42"/>
@@ -5894,71 +5873,71 @@
       <c r="B35" s="62"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39">
-        <f t="shared" ref="C35:T35" si="62">D18/C18-1</f>
+        <f t="shared" ref="D35:T35" si="63">D18/C18-1</f>
         <v>0.4098360655737705</v>
       </c>
       <c r="E35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.2732558139534884</v>
       </c>
       <c r="F35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="G35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="H35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="I35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="K35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="L35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="M35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="S35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="T35" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="U35" s="42"/>
@@ -6065,71 +6044,71 @@
       <c r="B36" s="62"/>
       <c r="C36" s="39"/>
       <c r="D36" s="39">
-        <f t="shared" ref="C36:T36" si="63">D19/C19-1</f>
+        <f t="shared" ref="D36:T36" si="64">D19/C19-1</f>
         <v>0.74257425742574257</v>
       </c>
       <c r="E36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.0965909090909092</v>
       </c>
       <c r="F36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="G36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="I36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="K36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="L36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="M36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="N36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="O36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="P36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Q36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="R36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="S36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="T36" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="U36" s="42"/>
@@ -6236,71 +6215,71 @@
       <c r="B37" s="62"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39">
-        <f t="shared" ref="D37:T37" si="64">D20/C20-1</f>
+        <f t="shared" ref="D37:T37" si="65">D20/C20-1</f>
         <v>0.91803278688524581</v>
       </c>
       <c r="E37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.87179487179487181</v>
       </c>
       <c r="F37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="G37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="H37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="I37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="J37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="K37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="L37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="M37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="N37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="O37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="Q37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="S37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T37" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="U37" s="42"/>
@@ -6402,7 +6381,7 @@
     </row>
     <row r="38" spans="1:116" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B38" s="62"/>
       <c r="C38" s="48"/>
@@ -6411,27 +6390,27 @@
         <v>0.63732394366197176</v>
       </c>
       <c r="E38" s="48">
-        <f t="shared" ref="E38:T38" si="65">E21/D21-1</f>
+        <f t="shared" ref="E38:T38" si="66">E21/D21-1</f>
         <v>1.1053763440860216</v>
       </c>
       <c r="F38" s="48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.22875383043922382</v>
       </c>
       <c r="G38" s="48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.23178644166424212</v>
       </c>
       <c r="H38" s="48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.23482143911619646</v>
       </c>
       <c r="I38" s="48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.23784661949897679</v>
       </c>
       <c r="J38" s="48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.24084985422218819</v>
       </c>
       <c r="K38" s="48">
@@ -6439,39 +6418,39 @@
         <v>6.4856670411725492E-2</v>
       </c>
       <c r="L38" s="48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>6.658335254369474E-2</v>
       </c>
       <c r="M38" s="48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>6.82389212137402E-2</v>
       </c>
       <c r="N38" s="48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>6.9823370876370694E-2</v>
       </c>
       <c r="O38" s="48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>7.1337196315415463E-2</v>
       </c>
       <c r="P38" s="48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>7.2781331678381411E-2</v>
       </c>
       <c r="Q38" s="48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>7.41570892841239E-2</v>
       </c>
       <c r="R38" s="48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>7.5466099785783003E-2</v>
       </c>
       <c r="S38" s="48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>7.6710254959614144E-2</v>
       </c>
       <c r="T38" s="48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>7.7891654085719519E-2</v>
       </c>
       <c r="U38" s="62"/>
@@ -6704,63 +6683,63 @@
       </c>
       <c r="F40" s="54">
         <f>E40+F26</f>
-        <v>1169.3157190893228</v>
+        <v>1172.7715277752691</v>
       </c>
       <c r="G40" s="54">
         <f>F40+G26</f>
-        <v>1042.959046802466</v>
+        <v>1051.4499687438361</v>
       </c>
       <c r="H40" s="54">
-        <f t="shared" ref="H40:T40" si="66">G40+H26</f>
-        <v>1108.5355224517273</v>
+        <f t="shared" ref="H40:T40" si="67">G40+H26</f>
+        <v>1124.3367549572793</v>
       </c>
       <c r="I40" s="54">
-        <f t="shared" si="66"/>
-        <v>1510.682410365119</v>
+        <f t="shared" si="67"/>
+        <v>1537.0712532665621</v>
       </c>
       <c r="J40" s="54">
-        <f t="shared" si="66"/>
-        <v>2471.7198497438667</v>
+        <f t="shared" si="67"/>
+        <v>2513.4166477729814</v>
       </c>
       <c r="K40" s="54">
-        <f t="shared" si="66"/>
-        <v>3626.5832846866824</v>
+        <f t="shared" si="67"/>
+        <v>3685.3342075604733</v>
       </c>
       <c r="L40" s="54">
-        <f t="shared" si="66"/>
-        <v>4997.3691530105298</v>
+        <f t="shared" si="67"/>
+        <v>5075.0986487791761</v>
       </c>
       <c r="M40" s="54">
-        <f t="shared" si="66"/>
-        <v>6608.5452011392417</v>
+        <f t="shared" si="67"/>
+        <v>6707.3738862625569</v>
       </c>
       <c r="N40" s="54">
-        <f t="shared" si="66"/>
-        <v>8487.194881713458</v>
+        <f t="shared" si="67"/>
+        <v>8609.4592212031312</v>
       </c>
       <c r="O40" s="54">
-        <f t="shared" si="66"/>
-        <v>10663.286565579288</v>
+        <f t="shared" si="67"/>
+        <v>10811.560522231473</v>
       </c>
       <c r="P40" s="54">
-        <f t="shared" si="66"/>
-        <v>13169.970068013008</v>
+        <f t="shared" si="67"/>
+        <v>13347.088917658588</v>
       </c>
       <c r="Q40" s="54">
-        <f t="shared" si="66"/>
-        <v>16043.903239950574</v>
+        <f t="shared" si="67"/>
+        <v>16252.989769343469</v>
       </c>
       <c r="R40" s="54">
-        <f t="shared" si="66"/>
-        <v>19325.611651039519</v>
+        <f t="shared" si="67"/>
+        <v>19570.104976665767</v>
       </c>
       <c r="S40" s="54">
-        <f t="shared" si="66"/>
-        <v>23059.884695032953</v>
+        <f t="shared" si="67"/>
+        <v>23343.571964951891</v>
       </c>
       <c r="T40" s="54">
-        <f t="shared" si="66"/>
-        <v>27296.211782168637</v>
+        <f t="shared" si="67"/>
+        <v>27623.263049208937</v>
       </c>
       <c r="U40" s="42"/>
       <c r="V40" s="42"/>
@@ -8598,7 +8577,7 @@
     </row>
     <row r="55" spans="1:116" x14ac:dyDescent="0.15">
       <c r="B55" s="62"/>
-      <c r="C55" s="48"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="42"/>
       <c r="E55" s="42"/>
       <c r="F55" s="42"/>
@@ -8714,26 +8693,24 @@
       <c r="DL55" s="42"/>
     </row>
     <row r="56" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>65</v>
+      <c r="A56" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="B56" s="62"/>
-      <c r="C56" s="48"/>
+      <c r="C56" s="59"/>
       <c r="D56" s="59">
-        <f>(D44/D28)/$C$2</f>
-        <v>3.5031330235695745E-3</v>
+        <f t="shared" ref="D56:J59" si="68">D10/C10-1</f>
+        <v>0.62915893940153378</v>
       </c>
       <c r="E56" s="59">
-        <f>(E44/E28)/$C$2</f>
-        <v>0.10935124488396238</v>
-      </c>
-      <c r="F56" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
+        <f t="shared" si="68"/>
+        <v>0.74515549935621994</v>
+      </c>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
       <c r="K56" s="42"/>
       <c r="L56" s="42"/>
       <c r="M56" s="42"/>
@@ -8842,15 +8819,17 @@
       <c r="DL56" s="42"/>
     </row>
     <row r="57" spans="1:116" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
       <c r="B57" s="62"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="63"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
       <c r="G57" s="42"/>
       <c r="H57" s="42"/>
       <c r="I57" s="42"/>
       <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
       <c r="L57" s="42"/>
       <c r="M57" s="42"/>
       <c r="N57" s="42"/>
@@ -8957,961 +8936,293 @@
       <c r="DK57" s="42"/>
       <c r="DL57" s="42"/>
     </row>
-    <row r="58" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
-        <v>70</v>
+    <row r="58" spans="1:116" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="B58" s="62"/>
-      <c r="C58" s="59">
-        <f t="shared" ref="C58:J58" si="67">C26/C18-1</f>
-        <v>-1.548155737704918</v>
-      </c>
+      <c r="C58" s="59"/>
       <c r="D58" s="59">
-        <f t="shared" si="67"/>
-        <v>-1.7079883720930233</v>
+        <f t="shared" si="68"/>
+        <v>0.31843314123444411</v>
       </c>
       <c r="E58" s="59">
-        <f t="shared" si="67"/>
-        <v>-1.785378516624041</v>
+        <f t="shared" si="68"/>
+        <v>1.8201145347658625</v>
       </c>
       <c r="F58" s="59">
-        <f t="shared" si="67"/>
-        <v>-1.4439981918368625</v>
+        <f t="shared" ref="F58:J58" si="69">F12/E12-1</f>
+        <v>0.22259860608184412</v>
       </c>
       <c r="G58" s="59">
-        <f t="shared" si="67"/>
-        <v>-1.1912206181795377</v>
+        <f t="shared" si="69"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="H58" s="59">
-        <f t="shared" si="67"/>
-        <v>-0.92366191557510835</v>
+        <f t="shared" si="69"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="I58" s="59">
-        <f t="shared" si="67"/>
-        <v>-0.63989052738344876</v>
+        <f t="shared" si="69"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="J58" s="59">
-        <f t="shared" si="67"/>
-        <v>-0.33801707427940397</v>
-      </c>
-      <c r="K58" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="42"/>
-      <c r="T58" s="42"/>
-      <c r="U58" s="42"/>
-      <c r="V58" s="42"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="42"/>
-      <c r="Y58" s="42"/>
-      <c r="Z58" s="42"/>
-      <c r="AA58" s="42"/>
-      <c r="AB58" s="42"/>
-      <c r="AC58" s="42"/>
-      <c r="AD58" s="42"/>
-      <c r="AE58" s="42"/>
-      <c r="AF58" s="42"/>
-      <c r="AG58" s="42"/>
-      <c r="AH58" s="42"/>
-      <c r="AI58" s="42"/>
-      <c r="AJ58" s="42"/>
-      <c r="AK58" s="42"/>
-      <c r="AL58" s="42"/>
-      <c r="AM58" s="42"/>
-      <c r="AN58" s="42"/>
-      <c r="AO58" s="42"/>
-      <c r="AP58" s="42"/>
-      <c r="AQ58" s="42"/>
-      <c r="AR58" s="42"/>
-      <c r="AS58" s="42"/>
-      <c r="AT58" s="42"/>
-      <c r="AU58" s="42"/>
-      <c r="AV58" s="42"/>
-      <c r="AW58" s="42"/>
-      <c r="AX58" s="42"/>
-      <c r="AY58" s="42"/>
-      <c r="AZ58" s="42"/>
-      <c r="BA58" s="42"/>
-      <c r="BB58" s="42"/>
-      <c r="BC58" s="42"/>
-      <c r="BD58" s="42"/>
-      <c r="BE58" s="42"/>
-      <c r="BF58" s="42"/>
-      <c r="BG58" s="42"/>
-      <c r="BH58" s="42"/>
-      <c r="BI58" s="42"/>
-      <c r="BJ58" s="42"/>
-      <c r="BK58" s="42"/>
-      <c r="BL58" s="42"/>
-      <c r="BM58" s="42"/>
-      <c r="BN58" s="42"/>
-      <c r="BO58" s="42"/>
-      <c r="BP58" s="42"/>
-      <c r="BQ58" s="42"/>
-      <c r="BR58" s="42"/>
-      <c r="BS58" s="42"/>
-      <c r="BT58" s="42"/>
-      <c r="BU58" s="42"/>
-      <c r="BV58" s="42"/>
-      <c r="BW58" s="42"/>
-      <c r="BX58" s="42"/>
-      <c r="BY58" s="42"/>
-      <c r="BZ58" s="42"/>
-      <c r="CA58" s="42"/>
-      <c r="CB58" s="42"/>
-      <c r="CC58" s="42"/>
-      <c r="CD58" s="42"/>
-      <c r="CE58" s="42"/>
-      <c r="CF58" s="42"/>
-      <c r="CG58" s="42"/>
-      <c r="CH58" s="42"/>
-      <c r="CI58" s="42"/>
-      <c r="CJ58" s="42"/>
-      <c r="CK58" s="42"/>
-      <c r="CL58" s="42"/>
-      <c r="CM58" s="42"/>
-      <c r="CN58" s="42"/>
-      <c r="CO58" s="42"/>
-      <c r="CP58" s="42"/>
-      <c r="CQ58" s="42"/>
-      <c r="CR58" s="42"/>
-      <c r="CS58" s="42"/>
-      <c r="CT58" s="42"/>
-      <c r="CU58" s="42"/>
-      <c r="CV58" s="42"/>
-      <c r="CW58" s="42"/>
-      <c r="CX58" s="42"/>
-      <c r="CY58" s="42"/>
-      <c r="CZ58" s="42"/>
-      <c r="DA58" s="42"/>
-      <c r="DB58" s="42"/>
-      <c r="DC58" s="42"/>
-      <c r="DD58" s="42"/>
-      <c r="DE58" s="42"/>
-      <c r="DF58" s="42"/>
-      <c r="DG58" s="42"/>
-      <c r="DH58" s="42"/>
-      <c r="DI58" s="42"/>
-      <c r="DJ58" s="42"/>
-      <c r="DK58" s="42"/>
-      <c r="DL58" s="42"/>
-    </row>
-    <row r="59" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
-        <v>71</v>
+        <f t="shared" si="69"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="59"/>
+      <c r="S58" s="59"/>
+      <c r="T58" s="59"/>
+      <c r="U58" s="59"/>
+      <c r="V58" s="59"/>
+      <c r="W58" s="59"/>
+      <c r="X58" s="59"/>
+      <c r="Y58" s="59"/>
+      <c r="Z58" s="59"/>
+      <c r="AA58" s="59"/>
+      <c r="AB58" s="59"/>
+      <c r="AC58" s="59"/>
+      <c r="AD58" s="59"/>
+      <c r="AE58" s="59"/>
+      <c r="AF58" s="59"/>
+      <c r="AG58" s="59"/>
+      <c r="AH58" s="59"/>
+      <c r="AI58" s="59"/>
+      <c r="AJ58" s="59"/>
+      <c r="AK58" s="59"/>
+      <c r="AL58" s="59"/>
+      <c r="AM58" s="59"/>
+      <c r="AN58" s="59"/>
+      <c r="AO58" s="59"/>
+      <c r="AP58" s="59"/>
+      <c r="AQ58" s="59"/>
+      <c r="AR58" s="59"/>
+      <c r="AS58" s="59"/>
+      <c r="AT58" s="59"/>
+      <c r="AU58" s="59"/>
+      <c r="AV58" s="59"/>
+      <c r="AW58" s="59"/>
+      <c r="AX58" s="59"/>
+      <c r="AY58" s="59"/>
+      <c r="AZ58" s="59"/>
+      <c r="BA58" s="59"/>
+      <c r="BB58" s="59"/>
+      <c r="BC58" s="59"/>
+      <c r="BD58" s="59"/>
+      <c r="BE58" s="59"/>
+      <c r="BF58" s="59"/>
+      <c r="BG58" s="59"/>
+      <c r="BH58" s="59"/>
+      <c r="BI58" s="59"/>
+      <c r="BJ58" s="59"/>
+      <c r="BK58" s="59"/>
+      <c r="BL58" s="59"/>
+      <c r="BM58" s="59"/>
+      <c r="BN58" s="59"/>
+      <c r="BO58" s="59"/>
+      <c r="BP58" s="59"/>
+      <c r="BQ58" s="59"/>
+      <c r="BR58" s="59"/>
+      <c r="BS58" s="59"/>
+      <c r="BT58" s="59"/>
+      <c r="BU58" s="59"/>
+      <c r="BV58" s="59"/>
+      <c r="BW58" s="59"/>
+      <c r="BX58" s="59"/>
+      <c r="BY58" s="59"/>
+      <c r="BZ58" s="59"/>
+      <c r="CA58" s="59"/>
+      <c r="CB58" s="59"/>
+      <c r="CC58" s="59"/>
+      <c r="CD58" s="59"/>
+      <c r="CE58" s="59"/>
+      <c r="CF58" s="59"/>
+      <c r="CG58" s="59"/>
+      <c r="CH58" s="59"/>
+      <c r="CI58" s="59"/>
+      <c r="CJ58" s="59"/>
+      <c r="CK58" s="59"/>
+      <c r="CL58" s="59"/>
+      <c r="CM58" s="59"/>
+      <c r="CN58" s="59"/>
+      <c r="CO58" s="59"/>
+      <c r="CP58" s="59"/>
+      <c r="CQ58" s="59"/>
+      <c r="CR58" s="59"/>
+      <c r="CS58" s="59"/>
+      <c r="CT58" s="59"/>
+      <c r="CU58" s="59"/>
+      <c r="CV58" s="59"/>
+      <c r="CW58" s="59"/>
+      <c r="CX58" s="59"/>
+      <c r="CY58" s="59"/>
+      <c r="CZ58" s="59"/>
+      <c r="DA58" s="59"/>
+      <c r="DB58" s="59"/>
+      <c r="DC58" s="59"/>
+      <c r="DD58" s="59"/>
+      <c r="DE58" s="59"/>
+      <c r="DF58" s="59"/>
+      <c r="DG58" s="59"/>
+      <c r="DH58" s="59"/>
+      <c r="DI58" s="59"/>
+      <c r="DJ58" s="59"/>
+      <c r="DK58" s="59"/>
+      <c r="DL58" s="59"/>
+    </row>
+    <row r="59" spans="1:116" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="B59" s="62"/>
-      <c r="C59" s="64" t="str">
-        <f t="shared" ref="B59:J59" si="68">ROUND($C$4/C18,0)&amp;"x"</f>
-        <v>221x</v>
-      </c>
-      <c r="D59" s="64" t="str">
+      <c r="C59" s="59"/>
+      <c r="D59" s="59">
         <f t="shared" si="68"/>
-        <v>157x</v>
-      </c>
-      <c r="E59" s="64" t="str">
+        <v>0.23567808518235389</v>
+      </c>
+      <c r="E59" s="59">
         <f t="shared" si="68"/>
-        <v>69x</v>
-      </c>
-      <c r="F59" s="64" t="str">
-        <f t="shared" si="68"/>
-        <v>53x</v>
-      </c>
-      <c r="G59" s="64" t="str">
-        <f t="shared" si="68"/>
-        <v>41x</v>
-      </c>
-      <c r="H59" s="64" t="str">
-        <f t="shared" si="68"/>
-        <v>31x</v>
-      </c>
-      <c r="I59" s="64" t="str">
-        <f t="shared" si="68"/>
-        <v>24x</v>
-      </c>
-      <c r="J59" s="64" t="str">
-        <f t="shared" si="68"/>
-        <v>19x</v>
-      </c>
-      <c r="K59" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="42"/>
-      <c r="S59" s="42"/>
-      <c r="T59" s="42"/>
-      <c r="U59" s="42"/>
-      <c r="V59" s="42"/>
-      <c r="W59" s="42"/>
-      <c r="X59" s="42"/>
-      <c r="Y59" s="42"/>
-      <c r="Z59" s="42"/>
-      <c r="AA59" s="42"/>
-      <c r="AB59" s="42"/>
-      <c r="AC59" s="42"/>
-      <c r="AD59" s="42"/>
-      <c r="AE59" s="42"/>
-      <c r="AF59" s="42"/>
-      <c r="AG59" s="42"/>
-      <c r="AH59" s="42"/>
-      <c r="AI59" s="42"/>
-      <c r="AJ59" s="42"/>
-      <c r="AK59" s="42"/>
-      <c r="AL59" s="42"/>
-      <c r="AM59" s="42"/>
-      <c r="AN59" s="42"/>
-      <c r="AO59" s="42"/>
-      <c r="AP59" s="42"/>
-      <c r="AQ59" s="42"/>
-      <c r="AR59" s="42"/>
-      <c r="AS59" s="42"/>
-      <c r="AT59" s="42"/>
-      <c r="AU59" s="42"/>
-      <c r="AV59" s="42"/>
-      <c r="AW59" s="42"/>
-      <c r="AX59" s="42"/>
-      <c r="AY59" s="42"/>
-      <c r="AZ59" s="42"/>
-      <c r="BA59" s="42"/>
-      <c r="BB59" s="42"/>
-      <c r="BC59" s="42"/>
-      <c r="BD59" s="42"/>
-      <c r="BE59" s="42"/>
-      <c r="BF59" s="42"/>
-      <c r="BG59" s="42"/>
-      <c r="BH59" s="42"/>
-      <c r="BI59" s="42"/>
-      <c r="BJ59" s="42"/>
-      <c r="BK59" s="42"/>
-      <c r="BL59" s="42"/>
-      <c r="BM59" s="42"/>
-      <c r="BN59" s="42"/>
-      <c r="BO59" s="42"/>
-      <c r="BP59" s="42"/>
-      <c r="BQ59" s="42"/>
-      <c r="BR59" s="42"/>
-      <c r="BS59" s="42"/>
-      <c r="BT59" s="42"/>
-      <c r="BU59" s="42"/>
-      <c r="BV59" s="42"/>
-      <c r="BW59" s="42"/>
-      <c r="BX59" s="42"/>
-      <c r="BY59" s="42"/>
-      <c r="BZ59" s="42"/>
-      <c r="CA59" s="42"/>
-      <c r="CB59" s="42"/>
-      <c r="CC59" s="42"/>
-      <c r="CD59" s="42"/>
-      <c r="CE59" s="42"/>
-      <c r="CF59" s="42"/>
-      <c r="CG59" s="42"/>
-      <c r="CH59" s="42"/>
-      <c r="CI59" s="42"/>
-      <c r="CJ59" s="42"/>
-      <c r="CK59" s="42"/>
-      <c r="CL59" s="42"/>
-      <c r="CM59" s="42"/>
-      <c r="CN59" s="42"/>
-      <c r="CO59" s="42"/>
-      <c r="CP59" s="42"/>
-      <c r="CQ59" s="42"/>
-      <c r="CR59" s="42"/>
-      <c r="CS59" s="42"/>
-      <c r="CT59" s="42"/>
-      <c r="CU59" s="42"/>
-      <c r="CV59" s="42"/>
-      <c r="CW59" s="42"/>
-      <c r="CX59" s="42"/>
-      <c r="CY59" s="42"/>
-      <c r="CZ59" s="42"/>
-      <c r="DA59" s="42"/>
-      <c r="DB59" s="42"/>
-      <c r="DC59" s="42"/>
-      <c r="DD59" s="42"/>
-      <c r="DE59" s="42"/>
-      <c r="DF59" s="42"/>
-      <c r="DG59" s="42"/>
-      <c r="DH59" s="42"/>
-      <c r="DI59" s="42"/>
-      <c r="DJ59" s="42"/>
-      <c r="DK59" s="42"/>
-      <c r="DL59" s="42"/>
+        <v>-0.38117566579574758</v>
+      </c>
+      <c r="F59" s="59">
+        <f t="shared" ref="F59:J59" si="70">F13/E13-1</f>
+        <v>0.22720282997238228</v>
+      </c>
+      <c r="G59" s="59">
+        <f t="shared" si="70"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H59" s="59">
+        <f t="shared" si="70"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="I59" s="59">
+        <f t="shared" si="70"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="J59" s="59">
+        <f t="shared" si="70"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="59"/>
+      <c r="S59" s="59"/>
+      <c r="T59" s="59"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="59"/>
+      <c r="Z59" s="59"/>
+      <c r="AA59" s="59"/>
+      <c r="AB59" s="59"/>
+      <c r="AC59" s="59"/>
+      <c r="AD59" s="59"/>
+      <c r="AE59" s="59"/>
+      <c r="AF59" s="59"/>
+      <c r="AG59" s="59"/>
+      <c r="AH59" s="59"/>
+      <c r="AI59" s="59"/>
+      <c r="AJ59" s="59"/>
+      <c r="AK59" s="59"/>
+      <c r="AL59" s="59"/>
+      <c r="AM59" s="59"/>
+      <c r="AN59" s="59"/>
+      <c r="AO59" s="59"/>
+      <c r="AP59" s="59"/>
+      <c r="AQ59" s="59"/>
+      <c r="AR59" s="59"/>
+      <c r="AS59" s="59"/>
+      <c r="AT59" s="59"/>
+      <c r="AU59" s="59"/>
+      <c r="AV59" s="59"/>
+      <c r="AW59" s="59"/>
+      <c r="AX59" s="59"/>
+      <c r="AY59" s="59"/>
+      <c r="AZ59" s="59"/>
+      <c r="BA59" s="59"/>
+      <c r="BB59" s="59"/>
+      <c r="BC59" s="59"/>
+      <c r="BD59" s="59"/>
+      <c r="BE59" s="59"/>
+      <c r="BF59" s="59"/>
+      <c r="BG59" s="59"/>
+      <c r="BH59" s="59"/>
+      <c r="BI59" s="59"/>
+      <c r="BJ59" s="59"/>
+      <c r="BK59" s="59"/>
+      <c r="BL59" s="59"/>
+      <c r="BM59" s="59"/>
+      <c r="BN59" s="59"/>
+      <c r="BO59" s="59"/>
+      <c r="BP59" s="59"/>
+      <c r="BQ59" s="59"/>
+      <c r="BR59" s="59"/>
+      <c r="BS59" s="59"/>
+      <c r="BT59" s="59"/>
+      <c r="BU59" s="59"/>
+      <c r="BV59" s="59"/>
+      <c r="BW59" s="59"/>
+      <c r="BX59" s="59"/>
+      <c r="BY59" s="59"/>
+      <c r="BZ59" s="59"/>
+      <c r="CA59" s="59"/>
+      <c r="CB59" s="59"/>
+      <c r="CC59" s="59"/>
+      <c r="CD59" s="59"/>
+      <c r="CE59" s="59"/>
+      <c r="CF59" s="59"/>
+      <c r="CG59" s="59"/>
+      <c r="CH59" s="59"/>
+      <c r="CI59" s="59"/>
+      <c r="CJ59" s="59"/>
+      <c r="CK59" s="59"/>
+      <c r="CL59" s="59"/>
+      <c r="CM59" s="59"/>
+      <c r="CN59" s="59"/>
+      <c r="CO59" s="59"/>
+      <c r="CP59" s="59"/>
+      <c r="CQ59" s="59"/>
+      <c r="CR59" s="59"/>
+      <c r="CS59" s="59"/>
+      <c r="CT59" s="59"/>
+      <c r="CU59" s="59"/>
+      <c r="CV59" s="59"/>
+      <c r="CW59" s="59"/>
+      <c r="CX59" s="59"/>
+      <c r="CY59" s="59"/>
+      <c r="CZ59" s="59"/>
+      <c r="DA59" s="59"/>
+      <c r="DB59" s="59"/>
+      <c r="DC59" s="59"/>
+      <c r="DD59" s="59"/>
+      <c r="DE59" s="59"/>
+      <c r="DF59" s="59"/>
+      <c r="DG59" s="59"/>
+      <c r="DH59" s="59"/>
+      <c r="DI59" s="59"/>
+      <c r="DJ59" s="59"/>
+      <c r="DK59" s="59"/>
+      <c r="DL59" s="59"/>
     </row>
     <row r="60" spans="1:116" x14ac:dyDescent="0.15">
       <c r="B60" s="62"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="42"/>
-      <c r="W60" s="42"/>
-      <c r="X60" s="42"/>
-      <c r="Y60" s="42"/>
-      <c r="Z60" s="42"/>
-      <c r="AA60" s="42"/>
-      <c r="AB60" s="42"/>
-      <c r="AC60" s="42"/>
-      <c r="AD60" s="42"/>
-      <c r="AE60" s="42"/>
-      <c r="AF60" s="42"/>
-      <c r="AG60" s="42"/>
-      <c r="AH60" s="42"/>
-      <c r="AI60" s="42"/>
-      <c r="AJ60" s="42"/>
-      <c r="AK60" s="42"/>
-      <c r="AL60" s="42"/>
-      <c r="AM60" s="42"/>
-      <c r="AN60" s="42"/>
-      <c r="AO60" s="42"/>
-      <c r="AP60" s="42"/>
-      <c r="AQ60" s="42"/>
-      <c r="AR60" s="42"/>
-      <c r="AS60" s="42"/>
-      <c r="AT60" s="42"/>
-      <c r="AU60" s="42"/>
-      <c r="AV60" s="42"/>
-      <c r="AW60" s="42"/>
-      <c r="AX60" s="42"/>
-      <c r="AY60" s="42"/>
-      <c r="AZ60" s="42"/>
-      <c r="BA60" s="42"/>
-      <c r="BB60" s="42"/>
-      <c r="BC60" s="42"/>
-      <c r="BD60" s="42"/>
-      <c r="BE60" s="42"/>
-      <c r="BF60" s="42"/>
-      <c r="BG60" s="42"/>
-      <c r="BH60" s="42"/>
-      <c r="BI60" s="42"/>
-      <c r="BJ60" s="42"/>
-      <c r="BK60" s="42"/>
-      <c r="BL60" s="42"/>
-      <c r="BM60" s="42"/>
-      <c r="BN60" s="42"/>
-      <c r="BO60" s="42"/>
-      <c r="BP60" s="42"/>
-      <c r="BQ60" s="42"/>
-      <c r="BR60" s="42"/>
-      <c r="BS60" s="42"/>
-      <c r="BT60" s="42"/>
-      <c r="BU60" s="42"/>
-      <c r="BV60" s="42"/>
-      <c r="BW60" s="42"/>
-      <c r="BX60" s="42"/>
-      <c r="BY60" s="42"/>
-      <c r="BZ60" s="42"/>
-      <c r="CA60" s="42"/>
-      <c r="CB60" s="42"/>
-      <c r="CC60" s="42"/>
-      <c r="CD60" s="42"/>
-      <c r="CE60" s="42"/>
-      <c r="CF60" s="42"/>
-      <c r="CG60" s="42"/>
-      <c r="CH60" s="42"/>
-      <c r="CI60" s="42"/>
-      <c r="CJ60" s="42"/>
-      <c r="CK60" s="42"/>
-      <c r="CL60" s="42"/>
-      <c r="CM60" s="42"/>
-      <c r="CN60" s="42"/>
-      <c r="CO60" s="42"/>
-      <c r="CP60" s="42"/>
-      <c r="CQ60" s="42"/>
-      <c r="CR60" s="42"/>
-      <c r="CS60" s="42"/>
-      <c r="CT60" s="42"/>
-      <c r="CU60" s="42"/>
-      <c r="CV60" s="42"/>
-      <c r="CW60" s="42"/>
-      <c r="CX60" s="42"/>
-      <c r="CY60" s="42"/>
-      <c r="CZ60" s="42"/>
-      <c r="DA60" s="42"/>
-      <c r="DB60" s="42"/>
-      <c r="DC60" s="42"/>
-      <c r="DD60" s="42"/>
-      <c r="DE60" s="42"/>
-      <c r="DF60" s="42"/>
-      <c r="DG60" s="42"/>
-      <c r="DH60" s="42"/>
-      <c r="DI60" s="42"/>
-      <c r="DJ60" s="42"/>
-      <c r="DK60" s="42"/>
-      <c r="DL60" s="42"/>
     </row>
     <row r="61" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A61" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="B61" s="62"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59">
-        <f t="shared" ref="C61:J64" si="69">D10/C10-1</f>
-        <v>0.62915893940153378</v>
-      </c>
-      <c r="E61" s="59">
-        <f t="shared" si="69"/>
-        <v>0.74515549935621994</v>
-      </c>
-      <c r="F61" s="59">
-        <f>F10/E10-1</f>
-        <v>-1</v>
-      </c>
-      <c r="G61" s="59" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H61" s="59" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I61" s="59" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J61" s="59" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="42"/>
-      <c r="W61" s="42"/>
-      <c r="X61" s="42"/>
-      <c r="Y61" s="42"/>
-      <c r="Z61" s="42"/>
-      <c r="AA61" s="42"/>
-      <c r="AB61" s="42"/>
-      <c r="AC61" s="42"/>
-      <c r="AD61" s="42"/>
-      <c r="AE61" s="42"/>
-      <c r="AF61" s="42"/>
-      <c r="AG61" s="42"/>
-      <c r="AH61" s="42"/>
-      <c r="AI61" s="42"/>
-      <c r="AJ61" s="42"/>
-      <c r="AK61" s="42"/>
-      <c r="AL61" s="42"/>
-      <c r="AM61" s="42"/>
-      <c r="AN61" s="42"/>
-      <c r="AO61" s="42"/>
-      <c r="AP61" s="42"/>
-      <c r="AQ61" s="42"/>
-      <c r="AR61" s="42"/>
-      <c r="AS61" s="42"/>
-      <c r="AT61" s="42"/>
-      <c r="AU61" s="42"/>
-      <c r="AV61" s="42"/>
-      <c r="AW61" s="42"/>
-      <c r="AX61" s="42"/>
-      <c r="AY61" s="42"/>
-      <c r="AZ61" s="42"/>
-      <c r="BA61" s="42"/>
-      <c r="BB61" s="42"/>
-      <c r="BC61" s="42"/>
-      <c r="BD61" s="42"/>
-      <c r="BE61" s="42"/>
-      <c r="BF61" s="42"/>
-      <c r="BG61" s="42"/>
-      <c r="BH61" s="42"/>
-      <c r="BI61" s="42"/>
-      <c r="BJ61" s="42"/>
-      <c r="BK61" s="42"/>
-      <c r="BL61" s="42"/>
-      <c r="BM61" s="42"/>
-      <c r="BN61" s="42"/>
-      <c r="BO61" s="42"/>
-      <c r="BP61" s="42"/>
-      <c r="BQ61" s="42"/>
-      <c r="BR61" s="42"/>
-      <c r="BS61" s="42"/>
-      <c r="BT61" s="42"/>
-      <c r="BU61" s="42"/>
-      <c r="BV61" s="42"/>
-      <c r="BW61" s="42"/>
-      <c r="BX61" s="42"/>
-      <c r="BY61" s="42"/>
-      <c r="BZ61" s="42"/>
-      <c r="CA61" s="42"/>
-      <c r="CB61" s="42"/>
-      <c r="CC61" s="42"/>
-      <c r="CD61" s="42"/>
-      <c r="CE61" s="42"/>
-      <c r="CF61" s="42"/>
-      <c r="CG61" s="42"/>
-      <c r="CH61" s="42"/>
-      <c r="CI61" s="42"/>
-      <c r="CJ61" s="42"/>
-      <c r="CK61" s="42"/>
-      <c r="CL61" s="42"/>
-      <c r="CM61" s="42"/>
-      <c r="CN61" s="42"/>
-      <c r="CO61" s="42"/>
-      <c r="CP61" s="42"/>
-      <c r="CQ61" s="42"/>
-      <c r="CR61" s="42"/>
-      <c r="CS61" s="42"/>
-      <c r="CT61" s="42"/>
-      <c r="CU61" s="42"/>
-      <c r="CV61" s="42"/>
-      <c r="CW61" s="42"/>
-      <c r="CX61" s="42"/>
-      <c r="CY61" s="42"/>
-      <c r="CZ61" s="42"/>
-      <c r="DA61" s="42"/>
-      <c r="DB61" s="42"/>
-      <c r="DC61" s="42"/>
-      <c r="DD61" s="42"/>
-      <c r="DE61" s="42"/>
-      <c r="DF61" s="42"/>
-      <c r="DG61" s="42"/>
-      <c r="DH61" s="42"/>
-      <c r="DI61" s="42"/>
-      <c r="DJ61" s="42"/>
-      <c r="DK61" s="42"/>
-      <c r="DL61" s="42"/>
-    </row>
-    <row r="62" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A62" s="6"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="42"/>
-      <c r="V62" s="42"/>
-      <c r="W62" s="42"/>
-      <c r="X62" s="42"/>
-      <c r="Y62" s="42"/>
-      <c r="Z62" s="42"/>
-      <c r="AA62" s="42"/>
-      <c r="AB62" s="42"/>
-      <c r="AC62" s="42"/>
-      <c r="AD62" s="42"/>
-      <c r="AE62" s="42"/>
-      <c r="AF62" s="42"/>
-      <c r="AG62" s="42"/>
-      <c r="AH62" s="42"/>
-      <c r="AI62" s="42"/>
-      <c r="AJ62" s="42"/>
-      <c r="AK62" s="42"/>
-      <c r="AL62" s="42"/>
-      <c r="AM62" s="42"/>
-      <c r="AN62" s="42"/>
-      <c r="AO62" s="42"/>
-      <c r="AP62" s="42"/>
-      <c r="AQ62" s="42"/>
-      <c r="AR62" s="42"/>
-      <c r="AS62" s="42"/>
-      <c r="AT62" s="42"/>
-      <c r="AU62" s="42"/>
-      <c r="AV62" s="42"/>
-      <c r="AW62" s="42"/>
-      <c r="AX62" s="42"/>
-      <c r="AY62" s="42"/>
-      <c r="AZ62" s="42"/>
-      <c r="BA62" s="42"/>
-      <c r="BB62" s="42"/>
-      <c r="BC62" s="42"/>
-      <c r="BD62" s="42"/>
-      <c r="BE62" s="42"/>
-      <c r="BF62" s="42"/>
-      <c r="BG62" s="42"/>
-      <c r="BH62" s="42"/>
-      <c r="BI62" s="42"/>
-      <c r="BJ62" s="42"/>
-      <c r="BK62" s="42"/>
-      <c r="BL62" s="42"/>
-      <c r="BM62" s="42"/>
-      <c r="BN62" s="42"/>
-      <c r="BO62" s="42"/>
-      <c r="BP62" s="42"/>
-      <c r="BQ62" s="42"/>
-      <c r="BR62" s="42"/>
-      <c r="BS62" s="42"/>
-      <c r="BT62" s="42"/>
-      <c r="BU62" s="42"/>
-      <c r="BV62" s="42"/>
-      <c r="BW62" s="42"/>
-      <c r="BX62" s="42"/>
-      <c r="BY62" s="42"/>
-      <c r="BZ62" s="42"/>
-      <c r="CA62" s="42"/>
-      <c r="CB62" s="42"/>
-      <c r="CC62" s="42"/>
-      <c r="CD62" s="42"/>
-      <c r="CE62" s="42"/>
-      <c r="CF62" s="42"/>
-      <c r="CG62" s="42"/>
-      <c r="CH62" s="42"/>
-      <c r="CI62" s="42"/>
-      <c r="CJ62" s="42"/>
-      <c r="CK62" s="42"/>
-      <c r="CL62" s="42"/>
-      <c r="CM62" s="42"/>
-      <c r="CN62" s="42"/>
-      <c r="CO62" s="42"/>
-      <c r="CP62" s="42"/>
-      <c r="CQ62" s="42"/>
-      <c r="CR62" s="42"/>
-      <c r="CS62" s="42"/>
-      <c r="CT62" s="42"/>
-      <c r="CU62" s="42"/>
-      <c r="CV62" s="42"/>
-      <c r="CW62" s="42"/>
-      <c r="CX62" s="42"/>
-      <c r="CY62" s="42"/>
-      <c r="CZ62" s="42"/>
-      <c r="DA62" s="42"/>
-      <c r="DB62" s="42"/>
-      <c r="DC62" s="42"/>
-      <c r="DD62" s="42"/>
-      <c r="DE62" s="42"/>
-      <c r="DF62" s="42"/>
-      <c r="DG62" s="42"/>
-      <c r="DH62" s="42"/>
-      <c r="DI62" s="42"/>
-      <c r="DJ62" s="42"/>
-      <c r="DK62" s="42"/>
-      <c r="DL62" s="42"/>
-    </row>
-    <row r="63" spans="1:116" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59">
-        <f t="shared" si="69"/>
-        <v>0.31843314123444411</v>
-      </c>
-      <c r="E63" s="59">
-        <f t="shared" si="69"/>
-        <v>1.8201145347658625</v>
-      </c>
-      <c r="F63" s="59">
-        <f t="shared" ref="F63:J63" si="70">F12/E12-1</f>
-        <v>0.22637804414174001</v>
-      </c>
-      <c r="G63" s="59">
-        <f t="shared" si="70"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="H63" s="59">
-        <f t="shared" si="70"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="I63" s="59">
-        <f t="shared" si="70"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="J63" s="59">
-        <f t="shared" si="70"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="59"/>
-      <c r="S63" s="59"/>
-      <c r="T63" s="59"/>
-      <c r="U63" s="59"/>
-      <c r="V63" s="59"/>
-      <c r="W63" s="59"/>
-      <c r="X63" s="59"/>
-      <c r="Y63" s="59"/>
-      <c r="Z63" s="59"/>
-      <c r="AA63" s="59"/>
-      <c r="AB63" s="59"/>
-      <c r="AC63" s="59"/>
-      <c r="AD63" s="59"/>
-      <c r="AE63" s="59"/>
-      <c r="AF63" s="59"/>
-      <c r="AG63" s="59"/>
-      <c r="AH63" s="59"/>
-      <c r="AI63" s="59"/>
-      <c r="AJ63" s="59"/>
-      <c r="AK63" s="59"/>
-      <c r="AL63" s="59"/>
-      <c r="AM63" s="59"/>
-      <c r="AN63" s="59"/>
-      <c r="AO63" s="59"/>
-      <c r="AP63" s="59"/>
-      <c r="AQ63" s="59"/>
-      <c r="AR63" s="59"/>
-      <c r="AS63" s="59"/>
-      <c r="AT63" s="59"/>
-      <c r="AU63" s="59"/>
-      <c r="AV63" s="59"/>
-      <c r="AW63" s="59"/>
-      <c r="AX63" s="59"/>
-      <c r="AY63" s="59"/>
-      <c r="AZ63" s="59"/>
-      <c r="BA63" s="59"/>
-      <c r="BB63" s="59"/>
-      <c r="BC63" s="59"/>
-      <c r="BD63" s="59"/>
-      <c r="BE63" s="59"/>
-      <c r="BF63" s="59"/>
-      <c r="BG63" s="59"/>
-      <c r="BH63" s="59"/>
-      <c r="BI63" s="59"/>
-      <c r="BJ63" s="59"/>
-      <c r="BK63" s="59"/>
-      <c r="BL63" s="59"/>
-      <c r="BM63" s="59"/>
-      <c r="BN63" s="59"/>
-      <c r="BO63" s="59"/>
-      <c r="BP63" s="59"/>
-      <c r="BQ63" s="59"/>
-      <c r="BR63" s="59"/>
-      <c r="BS63" s="59"/>
-      <c r="BT63" s="59"/>
-      <c r="BU63" s="59"/>
-      <c r="BV63" s="59"/>
-      <c r="BW63" s="59"/>
-      <c r="BX63" s="59"/>
-      <c r="BY63" s="59"/>
-      <c r="BZ63" s="59"/>
-      <c r="CA63" s="59"/>
-      <c r="CB63" s="59"/>
-      <c r="CC63" s="59"/>
-      <c r="CD63" s="59"/>
-      <c r="CE63" s="59"/>
-      <c r="CF63" s="59"/>
-      <c r="CG63" s="59"/>
-      <c r="CH63" s="59"/>
-      <c r="CI63" s="59"/>
-      <c r="CJ63" s="59"/>
-      <c r="CK63" s="59"/>
-      <c r="CL63" s="59"/>
-      <c r="CM63" s="59"/>
-      <c r="CN63" s="59"/>
-      <c r="CO63" s="59"/>
-      <c r="CP63" s="59"/>
-      <c r="CQ63" s="59"/>
-      <c r="CR63" s="59"/>
-      <c r="CS63" s="59"/>
-      <c r="CT63" s="59"/>
-      <c r="CU63" s="59"/>
-      <c r="CV63" s="59"/>
-      <c r="CW63" s="59"/>
-      <c r="CX63" s="59"/>
-      <c r="CY63" s="59"/>
-      <c r="CZ63" s="59"/>
-      <c r="DA63" s="59"/>
-      <c r="DB63" s="59"/>
-      <c r="DC63" s="59"/>
-      <c r="DD63" s="59"/>
-      <c r="DE63" s="59"/>
-      <c r="DF63" s="59"/>
-      <c r="DG63" s="59"/>
-      <c r="DH63" s="59"/>
-      <c r="DI63" s="59"/>
-      <c r="DJ63" s="59"/>
-      <c r="DK63" s="59"/>
-      <c r="DL63" s="59"/>
-    </row>
-    <row r="64" spans="1:116" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59">
-        <f t="shared" si="69"/>
-        <v>0.23567808518235389</v>
-      </c>
-      <c r="E64" s="59">
-        <f t="shared" si="69"/>
-        <v>-0.38117566579574758</v>
-      </c>
-      <c r="F64" s="59">
-        <f t="shared" ref="F64:J64" si="71">F13/E13-1</f>
-        <v>0.21797647172087808</v>
-      </c>
-      <c r="G64" s="59">
-        <f t="shared" si="71"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="H64" s="59">
-        <f t="shared" si="71"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="I64" s="59">
-        <f t="shared" si="71"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="J64" s="59">
-        <f t="shared" si="71"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="59"/>
-      <c r="N64" s="59"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="59"/>
-      <c r="S64" s="59"/>
-      <c r="T64" s="59"/>
-      <c r="U64" s="59"/>
-      <c r="V64" s="59"/>
-      <c r="W64" s="59"/>
-      <c r="X64" s="59"/>
-      <c r="Y64" s="59"/>
-      <c r="Z64" s="59"/>
-      <c r="AA64" s="59"/>
-      <c r="AB64" s="59"/>
-      <c r="AC64" s="59"/>
-      <c r="AD64" s="59"/>
-      <c r="AE64" s="59"/>
-      <c r="AF64" s="59"/>
-      <c r="AG64" s="59"/>
-      <c r="AH64" s="59"/>
-      <c r="AI64" s="59"/>
-      <c r="AJ64" s="59"/>
-      <c r="AK64" s="59"/>
-      <c r="AL64" s="59"/>
-      <c r="AM64" s="59"/>
-      <c r="AN64" s="59"/>
-      <c r="AO64" s="59"/>
-      <c r="AP64" s="59"/>
-      <c r="AQ64" s="59"/>
-      <c r="AR64" s="59"/>
-      <c r="AS64" s="59"/>
-      <c r="AT64" s="59"/>
-      <c r="AU64" s="59"/>
-      <c r="AV64" s="59"/>
-      <c r="AW64" s="59"/>
-      <c r="AX64" s="59"/>
-      <c r="AY64" s="59"/>
-      <c r="AZ64" s="59"/>
-      <c r="BA64" s="59"/>
-      <c r="BB64" s="59"/>
-      <c r="BC64" s="59"/>
-      <c r="BD64" s="59"/>
-      <c r="BE64" s="59"/>
-      <c r="BF64" s="59"/>
-      <c r="BG64" s="59"/>
-      <c r="BH64" s="59"/>
-      <c r="BI64" s="59"/>
-      <c r="BJ64" s="59"/>
-      <c r="BK64" s="59"/>
-      <c r="BL64" s="59"/>
-      <c r="BM64" s="59"/>
-      <c r="BN64" s="59"/>
-      <c r="BO64" s="59"/>
-      <c r="BP64" s="59"/>
-      <c r="BQ64" s="59"/>
-      <c r="BR64" s="59"/>
-      <c r="BS64" s="59"/>
-      <c r="BT64" s="59"/>
-      <c r="BU64" s="59"/>
-      <c r="BV64" s="59"/>
-      <c r="BW64" s="59"/>
-      <c r="BX64" s="59"/>
-      <c r="BY64" s="59"/>
-      <c r="BZ64" s="59"/>
-      <c r="CA64" s="59"/>
-      <c r="CB64" s="59"/>
-      <c r="CC64" s="59"/>
-      <c r="CD64" s="59"/>
-      <c r="CE64" s="59"/>
-      <c r="CF64" s="59"/>
-      <c r="CG64" s="59"/>
-      <c r="CH64" s="59"/>
-      <c r="CI64" s="59"/>
-      <c r="CJ64" s="59"/>
-      <c r="CK64" s="59"/>
-      <c r="CL64" s="59"/>
-      <c r="CM64" s="59"/>
-      <c r="CN64" s="59"/>
-      <c r="CO64" s="59"/>
-      <c r="CP64" s="59"/>
-      <c r="CQ64" s="59"/>
-      <c r="CR64" s="59"/>
-      <c r="CS64" s="59"/>
-      <c r="CT64" s="59"/>
-      <c r="CU64" s="59"/>
-      <c r="CV64" s="59"/>
-      <c r="CW64" s="59"/>
-      <c r="CX64" s="59"/>
-      <c r="CY64" s="59"/>
-      <c r="CZ64" s="59"/>
-      <c r="DA64" s="59"/>
-      <c r="DB64" s="59"/>
-      <c r="DC64" s="59"/>
-      <c r="DD64" s="59"/>
-      <c r="DE64" s="59"/>
-      <c r="DF64" s="59"/>
-      <c r="DG64" s="59"/>
-      <c r="DH64" s="59"/>
-      <c r="DI64" s="59"/>
-      <c r="DJ64" s="59"/>
-      <c r="DK64" s="59"/>
-      <c r="DL64" s="59"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="62"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="62"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9928,13 +9239,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9951,8 +9262,8 @@
     <col min="18" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="23" t="s">
@@ -9995,60 +9306,66 @@
         <v>63</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Q1" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="66">
+      <c r="B2" s="64">
         <v>42825</v>
       </c>
-      <c r="C2" s="68">
+      <c r="C2" s="66">
         <v>42916</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="71">
         <v>43008</v>
       </c>
-      <c r="E2" s="68">
+      <c r="E2" s="66">
         <v>43100</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="64">
         <v>43190</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="66">
         <v>43281</v>
       </c>
-      <c r="H2" s="73">
+      <c r="H2" s="71">
         <v>43373</v>
       </c>
-      <c r="I2" s="68">
+      <c r="I2" s="66">
         <v>43465</v>
       </c>
-      <c r="J2" s="66">
+      <c r="J2" s="64">
         <v>43555</v>
       </c>
-      <c r="K2" s="68">
+      <c r="K2" s="66">
         <v>43646</v>
       </c>
-      <c r="L2" s="73">
+      <c r="L2" s="71">
         <v>43738</v>
       </c>
-      <c r="M2" s="68">
+      <c r="M2" s="66">
         <v>43830</v>
       </c>
-      <c r="N2" s="66">
+      <c r="N2" s="64">
         <v>43921</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="67" t="s">
-        <v>100</v>
+      <c r="O2" s="66">
+        <v>44012</v>
+      </c>
+      <c r="P2" s="66">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="B3" s="23">
         <v>87.372</v>
@@ -10089,11 +9406,15 @@
       <c r="N3" s="23">
         <v>364.86799999999999</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="O3" s="24">
+        <v>400.84899999999999</v>
+      </c>
+      <c r="P3" s="24">
+        <v>447.96899999999999</v>
+      </c>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B4" s="23"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -10103,9 +9424,9 @@
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
     </row>
-    <row r="5" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B5" s="23">
         <v>40696</v>
@@ -10147,166 +9468,171 @@
         <v>190000</v>
       </c>
       <c r="O5" s="24">
-        <f>N5*1.05</f>
-        <v>199500</v>
+        <v>200000</v>
       </c>
       <c r="P5" s="24">
-        <f t="shared" ref="P5:Q5" si="0">O5*1.05</f>
-        <v>209475</v>
+        <v>208000</v>
       </c>
       <c r="Q5" s="24">
-        <f t="shared" si="0"/>
-        <v>219948.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="P5:Q5" si="0">P5*1.05</f>
+        <v>218400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="24">
-        <f>B3/(B5/1000000)</f>
+      <c r="B6" s="29">
+        <f t="shared" ref="B6:P6" si="1">B3/(B5/1000000)</f>
         <v>2146.9431885197559</v>
       </c>
-      <c r="C6" s="24">
-        <f>C3/(C5/1000000)</f>
+      <c r="C6" s="29">
+        <f t="shared" si="1"/>
         <v>2207.4094540765814</v>
       </c>
-      <c r="D6" s="24">
-        <f>D3/(D5/1000000)</f>
+      <c r="D6" s="29">
+        <f t="shared" si="1"/>
         <v>2162.7051560584223</v>
       </c>
-      <c r="E6" s="24">
-        <f>E3/(E5/1000000)</f>
+      <c r="E6" s="29">
+        <f t="shared" si="1"/>
         <v>2352.7634292247699</v>
       </c>
-      <c r="F6" s="23">
-        <f>F3/(F5/1000000)</f>
+      <c r="F6" s="30">
+        <f t="shared" si="1"/>
         <v>2391.7013985366307</v>
       </c>
-      <c r="G6" s="24">
-        <f>G3/(G5/1000000)</f>
+      <c r="G6" s="29">
+        <f t="shared" si="1"/>
         <v>2576.3557105492587</v>
       </c>
-      <c r="H6" s="24">
-        <f>H3/(H5/1000000)</f>
+      <c r="H6" s="29">
+        <f t="shared" si="1"/>
         <v>2761.3916910550497</v>
       </c>
-      <c r="I6" s="24">
-        <f>I3/(I5/1000000)</f>
+      <c r="I6" s="29">
+        <f t="shared" si="1"/>
         <v>3178.0169865911707</v>
       </c>
-      <c r="J6" s="23">
-        <f>J3/(J5/1000000)</f>
+      <c r="J6" s="30">
+        <f t="shared" si="1"/>
         <v>1506.0950793620034</v>
       </c>
-      <c r="K6" s="24">
-        <f>K3/(K5/1000000)</f>
+      <c r="K6" s="29">
+        <f t="shared" si="1"/>
         <v>1699.1456053969566</v>
       </c>
-      <c r="L6" s="24">
-        <f>L3/(L5/1000000)</f>
+      <c r="L6" s="29">
+        <f t="shared" si="1"/>
         <v>1714.5828975199311</v>
       </c>
-      <c r="M6" s="24">
-        <f>M3/(M5/1000000)</f>
+      <c r="M6" s="29">
+        <f t="shared" si="1"/>
         <v>1850.4134078212292</v>
       </c>
-      <c r="N6" s="23">
-        <f>N3/(N5/1000000)</f>
+      <c r="N6" s="30">
+        <f t="shared" si="1"/>
         <v>1920.3578947368421</v>
       </c>
-      <c r="O6" s="24">
-        <f>N6*1.05</f>
-        <v>2016.3757894736843</v>
-      </c>
-      <c r="P6" s="24">
-        <f t="shared" ref="P6:Q6" si="1">O6*1.05</f>
-        <v>2117.1945789473684</v>
+      <c r="O6" s="29">
+        <f t="shared" si="1"/>
+        <v>2004.2449999999999</v>
+      </c>
+      <c r="P6" s="29">
+        <f t="shared" si="1"/>
+        <v>2153.6971153846152</v>
       </c>
       <c r="Q6" s="24">
-        <f t="shared" si="1"/>
-        <v>2223.0543078947371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="P6:Q6" si="2">P6*1.05</f>
+        <v>2261.3819711538463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="72" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="72">
+        <v>365</v>
+      </c>
+      <c r="P7" s="72">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="26">
-        <f>B6*(B5/1000000)</f>
+        <f t="shared" ref="B8:Q8" si="3">B6*(B5/1000000)</f>
         <v>87.372</v>
       </c>
       <c r="C8" s="26">
-        <f>C6*(C5/1000000)</f>
+        <f t="shared" si="3"/>
         <v>95.87</v>
       </c>
       <c r="D8" s="26">
-        <f>D6*(D5/1000000)</f>
+        <f t="shared" si="3"/>
         <v>100.542</v>
       </c>
       <c r="E8" s="26">
-        <f>E6*(E5/1000000)</f>
+        <f t="shared" si="3"/>
         <v>115.236</v>
       </c>
       <c r="F8" s="27">
-        <f>F6*(F5/1000000)</f>
+        <f t="shared" si="3"/>
         <v>129.11600000000001</v>
       </c>
       <c r="G8" s="26">
-        <f>G6*(G5/1000000)</f>
+        <f t="shared" si="3"/>
         <v>147.75399999999999</v>
       </c>
       <c r="H8" s="26">
-        <f>H6*(H5/1000000)</f>
+        <f t="shared" si="3"/>
         <v>168.89500000000001</v>
       </c>
       <c r="I8" s="26">
-        <f>I6*(I5/1000000)</f>
+        <f t="shared" si="3"/>
         <v>204.30199999999999</v>
       </c>
       <c r="J8" s="27">
-        <f>J6*(J5/1000000)</f>
+        <f t="shared" si="3"/>
         <v>233.13900000000001</v>
       </c>
       <c r="K8" s="26">
-        <f>K6*(K5/1000000)</f>
+        <f t="shared" si="3"/>
         <v>275.03899999999999</v>
       </c>
       <c r="L8" s="26">
-        <f>L6*(L5/1000000)</f>
+        <f t="shared" si="3"/>
         <v>295.06599999999997</v>
       </c>
       <c r="M8" s="26">
-        <f>M6*(M5/1000000)</f>
+        <f t="shared" si="3"/>
         <v>331.22399999999999</v>
       </c>
       <c r="N8" s="27">
-        <f>N6*(N5/1000000)</f>
+        <f t="shared" si="3"/>
         <v>364.86799999999999</v>
       </c>
-      <c r="O8" s="54">
-        <f>O6*(O5/1000000)</f>
-        <v>402.26697000000007</v>
-      </c>
-      <c r="P8" s="54">
-        <f>P6*(P5/1000000)</f>
-        <v>443.49933442499997</v>
+      <c r="O8" s="26">
+        <f t="shared" si="3"/>
+        <v>400.84899999999999</v>
+      </c>
+      <c r="P8" s="26">
+        <f t="shared" si="3"/>
+        <v>447.96899999999994</v>
       </c>
       <c r="Q8" s="54">
-        <f>Q6*(Q5/1000000)</f>
-        <v>488.95801620356258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>493.88582250000007</v>
+      </c>
+      <c r="S8" s="17">
+        <f>SUM(N8:Q8)</f>
+        <v>1707.5718225000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -10349,28 +9675,32 @@
       <c r="N9" s="23">
         <v>171.333</v>
       </c>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
+      <c r="O9" s="55">
+        <v>191.71799999999999</v>
+      </c>
+      <c r="P9" s="55">
+        <v>217.095</v>
+      </c>
       <c r="Q9" s="55"/>
     </row>
-    <row r="10" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="30">
-        <f t="shared" ref="B10:D10" si="2">B8-B9</f>
+        <f t="shared" ref="B10:D10" si="4">B8-B9</f>
         <v>50.085999999999999</v>
       </c>
       <c r="C10" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53.537000000000006</v>
       </c>
       <c r="D10" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52.288000000000004</v>
       </c>
       <c r="E10" s="29">
-        <f t="shared" ref="E10" si="3">E8-E9</f>
+        <f t="shared" ref="E10" si="5">E8-E9</f>
         <v>60.214000000000006</v>
       </c>
       <c r="F10" s="30">
@@ -10382,38 +9712,44 @@
         <v>79.813999999999993</v>
       </c>
       <c r="H10" s="29">
-        <f t="shared" ref="H10:J10" si="4">H8-H9</f>
+        <f t="shared" ref="H10:J10" si="6">H8-H9</f>
         <v>91.864000000000004</v>
       </c>
       <c r="I10" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108.014</v>
       </c>
       <c r="J10" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>126.05000000000001</v>
       </c>
       <c r="K10" s="29">
-        <f t="shared" ref="K10:M10" si="5">K8-K9</f>
+        <f t="shared" ref="K10:P10" si="7">K8-K9</f>
         <v>150.01499999999999</v>
       </c>
       <c r="L10" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>158.16199999999998</v>
       </c>
       <c r="M10" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>174.69</v>
       </c>
       <c r="N10" s="30">
-        <f t="shared" ref="N10" si="6">N8-N9</f>
+        <f t="shared" ref="N10" si="8">N8-N9</f>
         <v>193.535</v>
       </c>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
+      <c r="O10" s="29">
+        <f t="shared" si="7"/>
+        <v>209.131</v>
+      </c>
+      <c r="P10" s="29">
+        <f t="shared" si="7"/>
+        <v>230.87399999999994</v>
+      </c>
       <c r="Q10" s="55"/>
     </row>
-    <row r="11" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -10456,11 +9792,15 @@
       <c r="N11" s="23">
         <v>114</v>
       </c>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
+      <c r="O11" s="55">
+        <v>121</v>
+      </c>
+      <c r="P11" s="55">
+        <v>137</v>
+      </c>
       <c r="Q11" s="55"/>
     </row>
-    <row r="12" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -10503,11 +9843,15 @@
       <c r="N12" s="23">
         <v>117</v>
       </c>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
+      <c r="O12" s="55">
+        <v>130</v>
+      </c>
+      <c r="P12" s="55">
+        <v>141</v>
+      </c>
       <c r="Q12" s="55"/>
     </row>
-    <row r="13" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -10551,48 +9895,52 @@
       <c r="N13" s="23">
         <v>55</v>
       </c>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
+      <c r="O13" s="55">
+        <v>61</v>
+      </c>
+      <c r="P13" s="55">
+        <v>66</v>
+      </c>
       <c r="Q13" s="55"/>
     </row>
-    <row r="14" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="30">
-        <f t="shared" ref="B14:D14" si="7">SUM(B11:B13)</f>
+        <f t="shared" ref="B14:D14" si="9">SUM(B11:B13)</f>
         <v>65</v>
       </c>
       <c r="C14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="D14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
       <c r="E14" s="29">
-        <f t="shared" ref="E14:F14" si="8">SUM(E11:E13)</f>
+        <f t="shared" ref="E14:F14" si="10">SUM(E11:E13)</f>
         <v>81</v>
       </c>
       <c r="F14" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
       <c r="G14" s="29">
-        <f t="shared" ref="G14:H14" si="9">SUM(G11:G13)</f>
+        <f t="shared" ref="G14:H14" si="11">SUM(G11:G13)</f>
         <v>102</v>
       </c>
       <c r="H14" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
       <c r="I14" s="29">
-        <f t="shared" ref="I14:K14" si="10">SUM(I11:I13)</f>
+        <f t="shared" ref="I14:J14" si="12">SUM(I11:I13)</f>
         <v>152</v>
       </c>
       <c r="J14" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>214</v>
       </c>
       <c r="K14" s="29">
@@ -10600,82 +9948,94 @@
         <v>244</v>
       </c>
       <c r="L14" s="29">
-        <f t="shared" ref="L14:M14" si="11">SUM(L11:L13)</f>
+        <f t="shared" ref="L14:M14" si="13">SUM(L11:L13)</f>
         <v>253</v>
       </c>
       <c r="M14" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>268</v>
       </c>
       <c r="N14" s="30">
-        <f t="shared" ref="N14" si="12">SUM(N11:N13)</f>
+        <f t="shared" ref="N14:O14" si="14">SUM(N11:N13)</f>
         <v>286</v>
       </c>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
+      <c r="O14" s="29">
+        <f t="shared" si="14"/>
+        <v>312</v>
+      </c>
+      <c r="P14" s="29">
+        <f t="shared" ref="P14" si="15">SUM(P11:P13)</f>
+        <v>344</v>
+      </c>
       <c r="Q14" s="55"/>
     </row>
-    <row r="15" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="30">
-        <f t="shared" ref="B15:H15" si="13">B10-B14</f>
+        <f t="shared" ref="B15:H15" si="16">B10-B14</f>
         <v>-14.914000000000001</v>
       </c>
       <c r="C15" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-7.4629999999999939</v>
       </c>
       <c r="D15" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-24.711999999999996</v>
       </c>
       <c r="E15" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-20.785999999999994</v>
       </c>
       <c r="F15" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-24.46599999999998</v>
       </c>
       <c r="G15" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-22.186000000000007</v>
       </c>
       <c r="H15" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-25.135999999999996</v>
       </c>
       <c r="I15" s="29">
-        <f t="shared" ref="I15:K15" si="14">I10-I14</f>
+        <f t="shared" ref="I15:K15" si="17">I10-I14</f>
         <v>-43.986000000000004</v>
       </c>
       <c r="J15" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-87.949999999999989</v>
       </c>
       <c r="K15" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-93.985000000000014</v>
       </c>
       <c r="L15" s="29">
-        <f t="shared" ref="L15:M15" si="15">L10-L14</f>
+        <f t="shared" ref="L15:M15" si="18">L10-L14</f>
         <v>-94.838000000000022</v>
       </c>
       <c r="M15" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-93.31</v>
       </c>
       <c r="N15" s="30">
-        <f t="shared" ref="N15" si="16">N10-N14</f>
+        <f t="shared" ref="N15:O15" si="19">N10-N14</f>
         <v>-92.465000000000003</v>
       </c>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
+      <c r="O15" s="29">
+        <f t="shared" si="19"/>
+        <v>-102.869</v>
+      </c>
+      <c r="P15" s="29">
+        <f t="shared" ref="P15" si="20">P10-P14</f>
+        <v>-113.12600000000006</v>
+      </c>
       <c r="Q15" s="55"/>
     </row>
-    <row r="16" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
@@ -10718,8 +10078,12 @@
       <c r="N16" s="23">
         <v>-1</v>
       </c>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
+      <c r="O16" s="55">
+        <v>3</v>
+      </c>
+      <c r="P16" s="55">
+        <v>-4</v>
+      </c>
       <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10727,15 +10091,15 @@
         <v>13</v>
       </c>
       <c r="B17" s="30">
-        <f t="shared" ref="B17:C17" si="17">B15+B16</f>
+        <f t="shared" ref="B17:C17" si="21">B15+B16</f>
         <v>-14.914000000000001</v>
       </c>
       <c r="C17" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-7.4629999999999939</v>
       </c>
       <c r="D17" s="29">
-        <f t="shared" ref="D17:F17" si="18">D15+D16</f>
+        <f t="shared" ref="D17:F17" si="22">D15+D16</f>
         <v>-23.711999999999996</v>
       </c>
       <c r="E17" s="29">
@@ -10743,43 +10107,49 @@
         <v>-19.785999999999994</v>
       </c>
       <c r="F17" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-23.46599999999998</v>
       </c>
       <c r="G17" s="29">
-        <f t="shared" ref="G17" si="19">G15+G16</f>
+        <f t="shared" ref="G17" si="23">G15+G16</f>
         <v>-24.186000000000007</v>
       </c>
       <c r="H17" s="29">
-        <f t="shared" ref="H17:L17" si="20">H15+H16</f>
+        <f t="shared" ref="H17:L17" si="24">H15+H16</f>
         <v>-27.135999999999996</v>
       </c>
       <c r="I17" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-46.986000000000004</v>
       </c>
       <c r="J17" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-88.949999999999989</v>
       </c>
       <c r="K17" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-94.985000000000014</v>
       </c>
       <c r="L17" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-90.838000000000022</v>
       </c>
       <c r="M17" s="29">
-        <f t="shared" ref="M17" si="21">M15+M16</f>
+        <f t="shared" ref="M17" si="25">M15+M16</f>
         <v>-88.31</v>
       </c>
       <c r="N17" s="30">
-        <f t="shared" ref="N17" si="22">N15+N16</f>
+        <f t="shared" ref="N17:P17" si="26">N15+N16</f>
         <v>-93.465000000000003</v>
       </c>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
+      <c r="O17" s="29">
+        <f t="shared" si="26"/>
+        <v>-99.869</v>
+      </c>
+      <c r="P17" s="29">
+        <f t="shared" si="26"/>
+        <v>-117.12600000000006</v>
+      </c>
       <c r="Q17" s="55"/>
     </row>
     <row r="18" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10825,8 +10195,12 @@
       <c r="N18" s="23">
         <v>1</v>
       </c>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
+      <c r="O18" s="24">
+        <v>0</v>
+      </c>
+      <c r="P18" s="24">
+        <v>-1</v>
+      </c>
       <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.15">
@@ -10834,59 +10208,65 @@
         <v>15</v>
       </c>
       <c r="B19" s="27">
-        <f t="shared" ref="B19:N19" si="23">B17-B18</f>
+        <f t="shared" ref="B19:N19" si="27">B17-B18</f>
         <v>-14.914000000000001</v>
       </c>
       <c r="C19" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-8.4629999999999939</v>
       </c>
       <c r="D19" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-23.711999999999996</v>
       </c>
       <c r="E19" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-19.785999999999994</v>
       </c>
       <c r="F19" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-23.46599999999998</v>
       </c>
       <c r="G19" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-24.186000000000007</v>
       </c>
       <c r="H19" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-27.135999999999996</v>
       </c>
       <c r="I19" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-46.986000000000004</v>
       </c>
       <c r="J19" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-36.949999999999989</v>
       </c>
       <c r="K19" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-92.985000000000014</v>
       </c>
       <c r="L19" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-87.838000000000022</v>
       </c>
       <c r="M19" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-89.31</v>
       </c>
       <c r="N19" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-94.465000000000003</v>
       </c>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
+      <c r="O19" s="26">
+        <f t="shared" ref="O19:P19" si="28">O17-O18</f>
+        <v>-99.869</v>
+      </c>
+      <c r="P19" s="26">
+        <f t="shared" si="28"/>
+        <v>-116.12600000000006</v>
+      </c>
       <c r="Q19" s="54"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.15">
@@ -10894,59 +10274,65 @@
         <v>16</v>
       </c>
       <c r="B20" s="32">
-        <f t="shared" ref="B20:D20" si="24">IFERROR(B19/B21,0)</f>
+        <f t="shared" ref="B20:D20" si="29">IFERROR(B19/B21,0)</f>
         <v>-0.1683052485281924</v>
       </c>
       <c r="C20" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-9.3129660025020475E-2</v>
       </c>
       <c r="D20" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-0.25730069005892214</v>
       </c>
       <c r="E20" s="31">
-        <f t="shared" ref="E20" si="25">IFERROR(E19/E21,0)</f>
+        <f t="shared" ref="E20" si="30">IFERROR(E19/E21,0)</f>
         <v>-0.21218926634815818</v>
       </c>
       <c r="F20" s="32">
-        <f t="shared" ref="F20:K20" si="26">IFERROR(F19/F21,0)</f>
+        <f t="shared" ref="F20:K20" si="31">IFERROR(F19/F21,0)</f>
         <v>-0.24786252897288066</v>
       </c>
       <c r="G20" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-0.25102659769306296</v>
       </c>
       <c r="H20" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-0.27684250875913841</v>
       </c>
       <c r="I20" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-0.47261103100258361</v>
       </c>
       <c r="J20" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-0.31692115463974319</v>
       </c>
       <c r="K20" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-0.71908235301377876</v>
       </c>
       <c r="L20" s="31">
-        <f t="shared" ref="L20:M20" si="27">IFERROR(L19/L21,0)</f>
+        <f t="shared" ref="L20:M20" si="32">IFERROR(L19/L21,0)</f>
         <v>-0.64397011807978566</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>-0.64844930004287127</v>
       </c>
       <c r="N20" s="32">
-        <f t="shared" ref="N20" si="28">IFERROR(N19/N21,0)</f>
+        <f t="shared" ref="N20:O20" si="33">IFERROR(N19/N21,0)</f>
         <v>-0.67847388143814547</v>
       </c>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
+      <c r="O20" s="31">
+        <f t="shared" si="33"/>
+        <v>-0.70519721001786062</v>
+      </c>
+      <c r="P20" s="31">
+        <f t="shared" ref="P20" si="34">IFERROR(P19/P21,0)</f>
+        <v>-0.78728917738396198</v>
+      </c>
       <c r="Q20" s="60"/>
     </row>
     <row r="21" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10992,8 +10378,12 @@
       <c r="N21" s="23">
         <v>139.231594</v>
       </c>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
+      <c r="O21" s="55">
+        <v>141.61854099999999</v>
+      </c>
+      <c r="P21" s="55">
+        <v>147.50107499999999</v>
+      </c>
       <c r="Q21" s="55"/>
     </row>
     <row r="22" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.15">
@@ -11011,59 +10401,65 @@
         <v>19</v>
       </c>
       <c r="B23" s="38">
-        <f t="shared" ref="B23:N23" si="29">IFERROR(B10/B8,0)</f>
+        <f t="shared" ref="B23:N23" si="35">IFERROR(B10/B8,0)</f>
         <v>0.57325001144531429</v>
       </c>
       <c r="C23" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.55843329508709716</v>
       </c>
       <c r="D23" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.52006126792783114</v>
       </c>
       <c r="E23" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.52252768232149682</v>
       </c>
       <c r="F23" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.53853898819666046</v>
       </c>
       <c r="G23" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.54018165328857426</v>
       </c>
       <c r="H23" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.54391189792474615</v>
       </c>
       <c r="I23" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.52869771221035522</v>
       </c>
       <c r="J23" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.54066458207335544</v>
       </c>
       <c r="K23" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.54543173877159234</v>
       </c>
       <c r="L23" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.53602244921475195</v>
       </c>
       <c r="M23" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.52740743424389536</v>
       </c>
       <c r="N23" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.53042470153589794</v>
       </c>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
+      <c r="O23" s="37">
+        <f t="shared" ref="O23:P23" si="36">IFERROR(O10/O8,0)</f>
+        <v>0.52172014898378194</v>
+      </c>
+      <c r="P23" s="37">
+        <f t="shared" si="36"/>
+        <v>0.51537941241469831</v>
+      </c>
       <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
@@ -11071,59 +10467,65 @@
         <v>20</v>
       </c>
       <c r="B24" s="40">
-        <f t="shared" ref="B24:N24" si="30">IFERROR(B15/B8,0)</f>
+        <f t="shared" ref="B24:N24" si="37">IFERROR(B15/B8,0)</f>
         <v>-0.17069541729615897</v>
       </c>
       <c r="C24" s="39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-7.7844998435381174E-2</v>
       </c>
       <c r="D24" s="39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.24578782996160803</v>
       </c>
       <c r="E24" s="39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.180377659759103</v>
       </c>
       <c r="F24" s="40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.18948852194925475</v>
       </c>
       <c r="G24" s="39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.15015498734382832</v>
       </c>
       <c r="H24" s="39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.1488261937890405</v>
       </c>
       <c r="I24" s="39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.21529892022594005</v>
       </c>
       <c r="J24" s="40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.37724276075645852</v>
       </c>
       <c r="K24" s="39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.34171517493882692</v>
       </c>
       <c r="L24" s="39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.32141283645015023</v>
       </c>
       <c r="M24" s="39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.28171267782527837</v>
       </c>
       <c r="N24" s="40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.25342041505421142</v>
       </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
+      <c r="O24" s="39">
+        <f t="shared" ref="O24:P24" si="38">IFERROR(O15/O8,0)</f>
+        <v>-0.25662780747862662</v>
+      </c>
+      <c r="P24" s="39">
+        <f t="shared" si="38"/>
+        <v>-0.25253086709124978</v>
+      </c>
       <c r="Q24" s="39"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
@@ -11131,59 +10533,65 @@
         <v>21</v>
       </c>
       <c r="B25" s="40">
-        <f t="shared" ref="B25:N25" si="31">IFERROR(B18/B17,0)</f>
+        <f t="shared" ref="B25:N25" si="39">IFERROR(B18/B17,0)</f>
         <v>0</v>
       </c>
       <c r="C25" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>-0.13399437223636618</v>
       </c>
       <c r="D25" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E25" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="F25" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G25" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H25" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I25" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J25" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0.58459808881394049</v>
       </c>
       <c r="K25" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>2.1055956203611094E-2</v>
       </c>
       <c r="L25" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>3.302582619608533E-2</v>
       </c>
       <c r="M25" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>-1.1323745895142113E-2</v>
       </c>
       <c r="N25" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>-1.069919221098807E-2</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
+      <c r="O25" s="39">
+        <f t="shared" ref="O25:P25" si="40">IFERROR(O18/O17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="39">
+        <f t="shared" si="40"/>
+        <v>8.5378139781090399E-3</v>
+      </c>
       <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.15">
@@ -11196,6 +10604,7 @@
       <c r="J26" s="61"/>
       <c r="N26" s="61"/>
       <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
     </row>
     <row r="27" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
@@ -11206,52 +10615,52 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="34">
-        <f t="shared" ref="F27:R27" si="32">IFERROR((F8/B8)-1,0)</f>
+        <f t="shared" ref="F27:Q27" si="41">IFERROR((F8/B8)-1,0)</f>
         <v>0.47777319965206266</v>
       </c>
       <c r="G27" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.54119119641180746</v>
       </c>
       <c r="H27" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.67984523880567327</v>
       </c>
       <c r="I27" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.77290082960186046</v>
       </c>
       <c r="J27" s="34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.80565537965860146</v>
       </c>
       <c r="K27" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.86146567944015051</v>
       </c>
       <c r="L27" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.74703810059504394</v>
       </c>
       <c r="M27" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.62124697751368063</v>
       </c>
       <c r="N27" s="34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.56502344095153534</v>
       </c>
       <c r="O27" s="33">
-        <f t="shared" si="32"/>
-        <v>0.4625815611604176</v>
+        <f t="shared" si="41"/>
+        <v>0.45742603776191748</v>
       </c>
       <c r="P27" s="33">
-        <f t="shared" si="32"/>
-        <v>0.50305129843831553</v>
+        <f t="shared" si="41"/>
+        <v>0.51819931811865816</v>
       </c>
       <c r="Q27" s="33">
-        <f t="shared" si="32"/>
-        <v>0.47621554055129645</v>
+        <f t="shared" si="41"/>
+        <v>0.49109310466632872</v>
       </c>
       <c r="R27" s="33"/>
     </row>
@@ -11264,43 +10673,49 @@
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="36">
-        <f t="shared" ref="F28:N31" si="33">F11/B11-1</f>
+        <f t="shared" ref="F28:P31" si="42">F11/B11-1</f>
         <v>0.40740740740740744</v>
       </c>
       <c r="G28" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="H28" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.3125</v>
       </c>
       <c r="I28" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.57575757575757569</v>
       </c>
       <c r="J28" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1.0526315789473686</v>
       </c>
       <c r="K28" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1.4750000000000001</v>
       </c>
       <c r="L28" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1.4761904761904763</v>
       </c>
       <c r="M28" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1.1153846153846154</v>
       </c>
       <c r="N28" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.46153846153846145</v>
       </c>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
+      <c r="O28" s="35">
+        <f t="shared" si="42"/>
+        <v>0.22222222222222232</v>
+      </c>
+      <c r="P28" s="35">
+        <f t="shared" si="42"/>
+        <v>0.31730769230769229</v>
+      </c>
       <c r="Q28" s="35"/>
     </row>
     <row r="29" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -11312,43 +10727,49 @@
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
       <c r="F29" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="G29" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.46153846153846145</v>
       </c>
       <c r="H29" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.76923076923076916</v>
       </c>
       <c r="I29" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1.1071428571428572</v>
       </c>
       <c r="J29" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1.1818181818181817</v>
       </c>
       <c r="K29" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1.3684210526315788</v>
       </c>
       <c r="L29" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1.1956521739130435</v>
       </c>
       <c r="M29" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.79661016949152552</v>
       </c>
       <c r="N29" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.625</v>
       </c>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
+      <c r="O29" s="35">
+        <f t="shared" si="42"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="P29" s="35">
+        <f t="shared" si="42"/>
+        <v>0.39603960396039595</v>
+      </c>
       <c r="Q29" s="35"/>
     </row>
     <row r="30" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -11360,43 +10781,49 @@
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
       <c r="F30" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.35294117647058831</v>
       </c>
       <c r="G30" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>3.8</v>
       </c>
       <c r="H30" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.52631578947368429</v>
       </c>
       <c r="I30" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="J30" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1.7826086956521738</v>
       </c>
       <c r="K30" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1.2916666666666665</v>
       </c>
       <c r="L30" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.65517241379310343</v>
       </c>
       <c r="M30" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.26829268292682928</v>
       </c>
       <c r="N30" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>-0.140625</v>
       </c>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
+      <c r="O30" s="35">
+        <f t="shared" si="42"/>
+        <v>0.10909090909090913</v>
+      </c>
+      <c r="P30" s="35">
+        <f t="shared" si="42"/>
+        <v>0.375</v>
+      </c>
       <c r="Q30" s="35"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
@@ -11408,43 +10835,49 @@
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
       <c r="F31" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.44615384615384612</v>
       </c>
       <c r="G31" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.67213114754098369</v>
       </c>
       <c r="H31" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.51948051948051943</v>
       </c>
       <c r="I31" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.87654320987654311</v>
       </c>
       <c r="J31" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1.2765957446808511</v>
       </c>
       <c r="K31" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1.392156862745098</v>
       </c>
       <c r="L31" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1.1623931623931623</v>
       </c>
       <c r="M31" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.76315789473684204</v>
       </c>
       <c r="N31" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.33644859813084116</v>
       </c>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
+      <c r="O31" s="37">
+        <f t="shared" si="42"/>
+        <v>0.27868852459016402</v>
+      </c>
+      <c r="P31" s="37">
+        <f t="shared" si="42"/>
+        <v>0.35968379446640308</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
@@ -11466,38 +10899,44 @@
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="26">
-        <f t="shared" ref="E33" si="34">E34-E35</f>
+        <f t="shared" ref="E33" si="43">E34-E35</f>
         <v>291</v>
       </c>
       <c r="F33" s="49"/>
       <c r="G33" s="48"/>
       <c r="H33" s="48"/>
       <c r="I33" s="26">
-        <f t="shared" ref="I33:J33" si="35">I34-I35</f>
+        <f t="shared" ref="I33:J33" si="44">I34-I35</f>
         <v>314</v>
       </c>
       <c r="J33" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>474</v>
       </c>
       <c r="K33" s="26">
-        <f t="shared" ref="K33:L33" si="36">K34-K35</f>
+        <f t="shared" ref="K33:L33" si="45">K34-K35</f>
         <v>1432</v>
       </c>
       <c r="L33" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>1430</v>
       </c>
       <c r="M33" s="26">
-        <f t="shared" ref="M33" si="37">M34-M35</f>
+        <f t="shared" ref="M33" si="46">M34-M35</f>
         <v>1395</v>
       </c>
       <c r="N33" s="27">
-        <f t="shared" ref="N33" si="38">N34-N35</f>
+        <f t="shared" ref="N33:O33" si="47">N34-N35</f>
         <v>1380</v>
       </c>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
+      <c r="O33" s="26">
+        <f t="shared" si="47"/>
+        <v>1433</v>
+      </c>
+      <c r="P33" s="26">
+        <f t="shared" ref="P33" si="48">P34-P35</f>
+        <v>2866</v>
+      </c>
       <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -11538,6 +10977,14 @@
         <f>346+1498</f>
         <v>1844</v>
       </c>
+      <c r="O34" s="24">
+        <f>476+1428</f>
+        <v>1904</v>
+      </c>
+      <c r="P34" s="24">
+        <f>1127+2172</f>
+        <v>3299</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
@@ -11571,6 +11018,12 @@
       </c>
       <c r="N35" s="23">
         <v>464</v>
+      </c>
+      <c r="O35" s="24">
+        <v>471</v>
+      </c>
+      <c r="P35" s="24">
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
@@ -11619,6 +11072,14 @@
         <f>445+2292</f>
         <v>2737</v>
       </c>
+      <c r="O37" s="24">
+        <f>425+2292</f>
+        <v>2717</v>
+      </c>
+      <c r="P37" s="24">
+        <f>404+2292</f>
+        <v>2696</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="19" t="s">
@@ -11651,6 +11112,12 @@
       <c r="N38" s="23">
         <v>5166</v>
       </c>
+      <c r="O38" s="24">
+        <v>5291</v>
+      </c>
+      <c r="P38" s="24">
+        <v>6724</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="19" t="s">
@@ -11682,6 +11149,12 @@
       </c>
       <c r="N39" s="23">
         <v>910</v>
+      </c>
+      <c r="O39" s="24">
+        <v>969</v>
+      </c>
+      <c r="P39" s="24">
+        <v>961</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
@@ -11700,35 +11173,43 @@
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
       <c r="E41" s="29">
-        <f t="shared" ref="E41" si="39">E38-E34-E37</f>
+        <f t="shared" ref="E41" si="49">E38-E34-E37</f>
         <v>121</v>
       </c>
       <c r="F41" s="49"/>
       <c r="G41" s="48"/>
       <c r="H41" s="48"/>
       <c r="I41" s="29">
-        <f t="shared" ref="I41:N41" si="40">I38-I34-I37</f>
+        <f t="shared" ref="I41:N41" si="50">I38-I34-I37</f>
         <v>215</v>
       </c>
       <c r="J41" s="30">
-        <f t="shared" ref="J41" si="41">J38-J34-J37</f>
+        <f t="shared" ref="J41" si="51">J38-J34-J37</f>
         <v>420</v>
       </c>
       <c r="K41" s="29">
-        <f t="shared" ref="K41" si="42">K38-K34-K37</f>
+        <f t="shared" ref="K41" si="52">K38-K34-K37</f>
         <v>458</v>
       </c>
       <c r="L41" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>480</v>
       </c>
       <c r="M41" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>540</v>
       </c>
       <c r="N41" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>585</v>
+      </c>
+      <c r="O41" s="29">
+        <f t="shared" ref="O41:P41" si="53">O38-O34-O37</f>
+        <v>670</v>
+      </c>
+      <c r="P41" s="29">
+        <f t="shared" si="53"/>
+        <v>729</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
@@ -11739,18 +11220,18 @@
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
       <c r="E42" s="29">
-        <f t="shared" ref="E42" si="43">E38-E39</f>
+        <f t="shared" ref="E42" si="54">E38-E39</f>
         <v>360</v>
       </c>
       <c r="F42" s="49"/>
       <c r="G42" s="48"/>
       <c r="H42" s="48"/>
       <c r="I42" s="29">
-        <f t="shared" ref="I42:J42" si="44">I38-I39</f>
+        <f t="shared" ref="I42:J42" si="55">I38-I39</f>
         <v>439</v>
       </c>
       <c r="J42" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="55"/>
         <v>3327</v>
       </c>
       <c r="K42" s="29">
@@ -11766,8 +11247,16 @@
         <v>4280</v>
       </c>
       <c r="N42" s="30">
-        <f t="shared" ref="N42" si="45">N38-N39</f>
+        <f t="shared" ref="N42" si="56">N38-N39</f>
         <v>4256</v>
+      </c>
+      <c r="O42" s="29">
+        <f>O38-O39</f>
+        <v>4322</v>
+      </c>
+      <c r="P42" s="29">
+        <f>P38-P39</f>
+        <v>5763</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
@@ -11786,38 +11275,44 @@
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
       <c r="E44" s="26">
-        <f t="shared" ref="E44" si="46">SUM(B19:E19)</f>
+        <f t="shared" ref="E44" si="57">SUM(B19:E19)</f>
         <v>-66.874999999999986</v>
       </c>
       <c r="F44" s="49"/>
       <c r="G44" s="48"/>
       <c r="H44" s="48"/>
       <c r="I44" s="26">
-        <f t="shared" ref="I44:M44" si="47">SUM(F19:I19)</f>
+        <f t="shared" ref="I44:P44" si="58">SUM(F19:I19)</f>
         <v>-121.77399999999999</v>
       </c>
       <c r="J44" s="27">
-        <f t="shared" ref="J44" si="48">SUM(G19:J19)</f>
+        <f t="shared" ref="J44" si="59">SUM(G19:J19)</f>
         <v>-135.25799999999998</v>
       </c>
       <c r="K44" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="58"/>
         <v>-204.05700000000002</v>
       </c>
       <c r="L44" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="58"/>
         <v>-264.75900000000001</v>
       </c>
       <c r="M44" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="58"/>
         <v>-307.08300000000003</v>
       </c>
       <c r="N44" s="27">
-        <f t="shared" ref="N44" si="49">SUM(K19:N19)</f>
+        <f t="shared" ref="N44" si="60">SUM(K19:N19)</f>
         <v>-364.59800000000007</v>
       </c>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
+      <c r="O44" s="26">
+        <f t="shared" si="58"/>
+        <v>-371.48200000000008</v>
+      </c>
+      <c r="P44" s="26">
+        <f t="shared" si="58"/>
+        <v>-399.7700000000001</v>
+      </c>
       <c r="Q44" s="28"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
@@ -11828,35 +11323,43 @@
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
       <c r="E45" s="37">
-        <f t="shared" ref="E45" si="50">E44/E42</f>
+        <f t="shared" ref="E45" si="61">E44/E42</f>
         <v>-0.18576388888888884</v>
       </c>
       <c r="F45" s="49"/>
       <c r="G45" s="48"/>
       <c r="H45" s="48"/>
       <c r="I45" s="37">
-        <f t="shared" ref="I45:N45" si="51">I44/I42</f>
+        <f t="shared" ref="I45:N45" si="62">I44/I42</f>
         <v>-0.27738952164009106</v>
       </c>
       <c r="J45" s="38">
-        <f t="shared" ref="J45" si="52">J44/J42</f>
+        <f t="shared" ref="J45" si="63">J44/J42</f>
         <v>-4.0654643823264197E-2</v>
       </c>
       <c r="K45" s="37">
-        <f t="shared" ref="K45" si="53">K44/K42</f>
+        <f t="shared" ref="K45" si="64">K44/K42</f>
         <v>-4.7488247614614849E-2</v>
       </c>
       <c r="L45" s="37">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>-6.1801820728291317E-2</v>
       </c>
       <c r="M45" s="37">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>-7.174836448598132E-2</v>
       </c>
       <c r="N45" s="38">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>-8.566682330827069E-2</v>
+      </c>
+      <c r="O45" s="37">
+        <f t="shared" ref="O45:P45" si="65">O44/O42</f>
+        <v>-8.5951411383618712E-2</v>
+      </c>
+      <c r="P45" s="37">
+        <f t="shared" si="65"/>
+        <v>-6.9368384521950391E-2</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
@@ -11867,35 +11370,43 @@
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
       <c r="E46" s="37">
-        <f t="shared" ref="E46" si="54">E44/E38</f>
+        <f t="shared" ref="E46" si="66">E44/E38</f>
         <v>-0.14861111111111108</v>
       </c>
       <c r="F46" s="49"/>
       <c r="G46" s="48"/>
       <c r="H46" s="48"/>
       <c r="I46" s="37">
-        <f t="shared" ref="I46:N46" si="55">I44/I38</f>
+        <f t="shared" ref="I46:N46" si="67">I44/I38</f>
         <v>-0.11834207968901846</v>
       </c>
       <c r="J46" s="38">
-        <f t="shared" ref="J46" si="56">J44/J38</f>
+        <f t="shared" ref="J46" si="68">J44/J38</f>
         <v>-3.2829611650485431E-2</v>
       </c>
       <c r="K46" s="37">
-        <f t="shared" ref="K46" si="57">K44/K38</f>
+        <f t="shared" ref="K46" si="69">K44/K38</f>
         <v>-3.9940692894891369E-2</v>
       </c>
       <c r="L46" s="37">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>-5.1811937377690805E-2</v>
       </c>
       <c r="M46" s="37">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>-5.96161910308678E-2</v>
       </c>
       <c r="N46" s="38">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>-7.0576461478900523E-2</v>
+      </c>
+      <c r="O46" s="37">
+        <f t="shared" ref="O46:P46" si="70">O44/O38</f>
+        <v>-7.021016821016822E-2</v>
+      </c>
+      <c r="P46" s="37">
+        <f t="shared" si="70"/>
+        <v>-5.9454193932183236E-2</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
@@ -11906,35 +11417,43 @@
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
       <c r="E47" s="37">
-        <f t="shared" ref="E47" si="58">E44/(E42-E37)</f>
+        <f t="shared" ref="E47" si="71">E44/(E42-E37)</f>
         <v>-0.20768633540372666</v>
       </c>
       <c r="F47" s="49"/>
       <c r="G47" s="48"/>
       <c r="H47" s="48"/>
       <c r="I47" s="37">
-        <f t="shared" ref="I47:N47" si="59">I44/(I42-I37)</f>
+        <f t="shared" ref="I47:N47" si="72">I44/(I42-I37)</f>
         <v>-0.32647184986595168</v>
       </c>
       <c r="J47" s="38">
-        <f t="shared" ref="J47" si="60">J44/(J42-J37)</f>
+        <f t="shared" ref="J47" si="73">J44/(J42-J37)</f>
         <v>-0.2477252747252747</v>
       </c>
       <c r="K47" s="37">
-        <f t="shared" ref="K47" si="61">K44/(K42-K37)</f>
+        <f t="shared" ref="K47" si="74">K44/(K42-K37)</f>
         <v>-0.13354515706806283</v>
       </c>
       <c r="L47" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>-0.172369140625</v>
       </c>
       <c r="M47" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>-0.20176281208935612</v>
       </c>
       <c r="N47" s="38">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>-0.24002501645819624</v>
+      </c>
+      <c r="O47" s="37">
+        <f t="shared" ref="O47:P47" si="75">O44/(O42-O37)</f>
+        <v>-0.2314529595015577</v>
+      </c>
+      <c r="P47" s="37">
+        <f t="shared" si="75"/>
+        <v>-0.13034561460710795</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
@@ -11945,140 +11464,154 @@
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
       <c r="E48" s="37">
-        <f t="shared" ref="E48" si="62">E44/E41</f>
+        <f t="shared" ref="E48" si="76">E44/E41</f>
         <v>-0.55268595041322299</v>
       </c>
       <c r="F48" s="49"/>
       <c r="G48" s="48"/>
       <c r="H48" s="48"/>
       <c r="I48" s="37">
-        <f t="shared" ref="I48:N48" si="63">I44/I41</f>
+        <f t="shared" ref="I48:N48" si="77">I44/I41</f>
         <v>-0.56639069767441852</v>
       </c>
       <c r="J48" s="38">
-        <f t="shared" ref="J48" si="64">J44/J41</f>
+        <f t="shared" ref="J48" si="78">J44/J41</f>
         <v>-0.32204285714285708</v>
       </c>
       <c r="K48" s="37">
-        <f t="shared" ref="K48" si="65">K44/K41</f>
+        <f t="shared" ref="K48" si="79">K44/K41</f>
         <v>-0.44553930131004371</v>
       </c>
       <c r="L48" s="37">
-        <f t="shared" si="63"/>
+        <f t="shared" si="77"/>
         <v>-0.55158125000000002</v>
       </c>
       <c r="M48" s="37">
-        <f t="shared" si="63"/>
+        <f t="shared" si="77"/>
         <v>-0.56867222222222225</v>
       </c>
       <c r="N48" s="38">
-        <f t="shared" si="63"/>
+        <f t="shared" si="77"/>
         <v>-0.6232444444444446</v>
+      </c>
+      <c r="O48" s="37">
+        <f t="shared" ref="O48:P48" si="80">O44/O41</f>
+        <v>-0.55445074626865687</v>
+      </c>
+      <c r="P48" s="37">
+        <f t="shared" si="80"/>
+        <v>-0.54838134430727037</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
       <c r="F50" s="38">
-        <f t="shared" ref="F50:N53" si="66">F3/B3-1</f>
+        <f t="shared" ref="F50:P53" si="81">F3/B3-1</f>
         <v>0.47777319965206266</v>
       </c>
       <c r="G50" s="37">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>0.54119119641180746</v>
       </c>
       <c r="H50" s="37">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>0.67984523880567327</v>
       </c>
       <c r="I50" s="37">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>0.77290082960186046</v>
       </c>
       <c r="J50" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>0.80565537965860146</v>
       </c>
       <c r="K50" s="37">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>0.86146567944015051</v>
       </c>
       <c r="L50" s="37">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>0.74703810059504394</v>
       </c>
       <c r="M50" s="37">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>0.62124697751368063</v>
       </c>
       <c r="N50" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>0.56502344095153534</v>
       </c>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
+      <c r="O50" s="37">
+        <f t="shared" si="81"/>
+        <v>0.45742603776191748</v>
+      </c>
+      <c r="P50" s="37">
+        <f t="shared" si="81"/>
+        <v>0.51819931811865838</v>
+      </c>
       <c r="Q50" s="37"/>
     </row>
     <row r="52" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
       <c r="E52" s="37"/>
       <c r="F52" s="38">
-        <f t="shared" ref="F52:F53" si="67">F5/B5-1</f>
+        <f t="shared" ref="F52:F53" si="82">F5/B5-1</f>
         <v>0.32654314920385286</v>
       </c>
       <c r="G52" s="37">
-        <f t="shared" ref="G52:G53" si="68">G5/C5-1</f>
+        <f t="shared" ref="G52:G53" si="83">G5/C5-1</f>
         <v>0.32048536759457535</v>
       </c>
       <c r="H52" s="37">
-        <f t="shared" ref="H52:H53" si="69">H5/D5-1</f>
+        <f t="shared" ref="H52:H53" si="84">H5/D5-1</f>
         <v>0.31564456107896488</v>
       </c>
       <c r="I52" s="37">
-        <f t="shared" ref="I52:I53" si="70">I5/E5-1</f>
+        <f t="shared" ref="I52:I53" si="85">I5/E5-1</f>
         <v>0.31252169297045662</v>
       </c>
       <c r="J52" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>1.8674076132258959</v>
       </c>
       <c r="K52" s="37">
-        <f t="shared" ref="K52:K53" si="71">K5/G5-1</f>
+        <f t="shared" ref="K52:K53" si="86">K5/G5-1</f>
         <v>1.8224760244115084</v>
       </c>
       <c r="L52" s="37">
-        <f t="shared" ref="L52:L53" si="72">L5/H5-1</f>
+        <f t="shared" ref="L52:L53" si="87">L5/H5-1</f>
         <v>1.8136618543890917</v>
       </c>
       <c r="M52" s="37">
-        <f t="shared" ref="M52:M53" si="73">M5/I5-1</f>
+        <f t="shared" ref="M52:M53" si="88">M5/I5-1</f>
         <v>1.7844320691908035</v>
       </c>
       <c r="N52" s="38">
-        <f t="shared" ref="N52:Q53" si="74">N5/J5-1</f>
+        <f t="shared" ref="N52:Q53" si="89">N5/J5-1</f>
         <v>0.22741396797095548</v>
       </c>
       <c r="O52" s="37">
-        <f t="shared" si="74"/>
-        <v>0.23247811501893501</v>
+        <f>O5/K5-1</f>
+        <v>0.23556703260043621</v>
       </c>
       <c r="P52" s="37">
-        <f t="shared" si="74"/>
-        <v>0.21722683215954253</v>
+        <f t="shared" si="89"/>
+        <v>0.20865583525091225</v>
       </c>
       <c r="Q52" s="37">
-        <f t="shared" si="74"/>
-        <v>0.22876396648044683</v>
+        <f t="shared" si="89"/>
+        <v>0.22011173184357546</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -12090,44 +11623,53 @@
       <c r="D53" s="37"/>
       <c r="E53" s="37"/>
       <c r="F53" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="82"/>
         <v>0.11400311443994338</v>
       </c>
       <c r="G53" s="37">
-        <f t="shared" si="68"/>
+        <f t="shared" si="83"/>
         <v>0.1671399276610499</v>
       </c>
       <c r="H53" s="37">
-        <f t="shared" si="69"/>
+        <f t="shared" si="84"/>
         <v>0.27682300258059533</v>
       </c>
       <c r="I53" s="37">
-        <f t="shared" si="70"/>
+        <f t="shared" si="85"/>
         <v>0.35075925913992978</v>
       </c>
       <c r="J53" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>-0.37028297918648545</v>
       </c>
       <c r="K53" s="37">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>-0.34048485679226637</v>
       </c>
       <c r="L53" s="37">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>-0.37908739891049736</v>
       </c>
       <c r="M53" s="37">
-        <f t="shared" si="73"/>
+        <f t="shared" si="88"/>
         <v>-0.41774590393047772</v>
       </c>
       <c r="N53" s="38">
-        <f t="shared" si="74"/>
+        <f t="shared" si="89"/>
         <v>0.27505754520513048</v>
       </c>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
+      <c r="O53" s="37">
+        <f>O6/K6-1</f>
+        <v>0.17956047653241902</v>
+      </c>
+      <c r="P53" s="37">
+        <f>P6/L6-1</f>
+        <v>0.2561055627580584</v>
+      </c>
+      <c r="Q53" s="37">
+        <f>Q6/M6-1</f>
+        <v>0.22209553908091939</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12157,78 +11699,78 @@
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="71" t="s">
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="72" t="s">
+      <c r="D8" s="69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="71" t="s">
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="70" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="72" t="s">
+      <c r="D10" s="69" t="s">
         <v>87</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
